--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -101,6 +101,11 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -108,6 +113,11 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -115,6 +125,11 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desempeño de las Funciones</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -122,6 +137,11 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>E - Presentación de servicios públicos</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -129,6 +149,11 @@
           <t>Gasto de Orden</t>
         </is>
       </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -184,7 +209,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>06-30-2022 04:34:53 pm</t>
+          <t>06-30-2022 07:47:43 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -470,12 +495,13 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -490,22 +516,22 @@
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Apoyos escolares 2</t>
+          <t>Entrega de apoyos escolares..</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>6003</t>
+          <t>6001</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Indicador de Apoyos escolares 2</t>
+          <t>Entrega de utiles escolares</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>12334</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -520,7 +546,7 @@
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>B,A</t>
+          <t>Cantidad de libros,Cantidad de mochilas,Cantidad de utiles</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
@@ -530,19 +556,19 @@
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A+B+C</t>
         </is>
       </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>12434</t>
-        </is>
-      </c>
-      <c r="O16" s="0">
-        <v>2000</v>
+          <t>Medio verifica Indicador 7456</t>
+        </is>
+      </c>
+      <c r="Y16" s="0">
+        <v>900</v>
       </c>
       <c r="AA16" s="0">
-        <v>2000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -599,7 +625,7 @@
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>Cantidad de libros,Cantidad de mochilas,Cantidad de utiles</t>
+          <t>Cantidad de mochilas,Cantidad de libros,Cantidad de utiles</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
@@ -617,11 +643,11 @@
           <t>Medio verifica Indicador 7456</t>
         </is>
       </c>
-      <c r="Z17" s="0">
-        <v>150</v>
+      <c r="T17" s="0">
+        <v>1200</v>
       </c>
       <c r="AA17" s="0">
-        <v>150</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -678,7 +704,7 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>Cantidad de mochilas,Cantidad de libros,Cantidad de utiles</t>
+          <t>Cantidad de mochilas,Cantidad de utiles,Cantidad de libros</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
@@ -696,11 +722,11 @@
           <t>Medio verifica Indicador 7456</t>
         </is>
       </c>
-      <c r="T18" s="0">
-        <v>1200</v>
+      <c r="O18" s="0">
+        <v>1500</v>
       </c>
       <c r="AA18" s="0">
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -775,11 +801,11 @@
           <t>Medio verifica Indicador 7456</t>
         </is>
       </c>
-      <c r="O19" s="0">
-        <v>1500</v>
+      <c r="Z19" s="0">
+        <v>150</v>
       </c>
       <c r="AA19" s="0">
-        <v>1500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -836,7 +862,7 @@
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>Cantidad de mochilas,Cantidad de utiles,Cantidad de libros</t>
+          <t>Cantidad de utiles,Cantidad de libros,Cantidad de mochilas</t>
         </is>
       </c>
       <c r="L20" s="0" t="inlineStr">
@@ -854,14 +880,14 @@
           <t>Medio verifica Indicador 7456</t>
         </is>
       </c>
-      <c r="Y20" s="0">
-        <v>900</v>
+      <c r="O20" s="0">
+        <v>6</v>
       </c>
       <c r="AA20" s="0">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>Fin</t>
@@ -878,66 +904,35 @@
           <t>poa</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Entrega de apoyos escolares..</t>
+          <t>1.1.1.-  Concertar acuerdos de colaboración con autoridades federales, estatales y municipales para instituir la politica energética en el Estado de Querétaro.</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Entrega de utiles escolares</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
+          <t>Concretar acuerdos con al menos 10 de las autoridades federales, estatales y municipales con las que se relacione la AEEQ</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>Cantidad de utiles,Cantidad de mochilas,Cantidad de libros</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7456</t>
-        </is>
-      </c>
-      <c r="O21" s="0">
-        <v>6</v>
-      </c>
-      <c r="AA21" s="0">
-        <v>6</v>
+          <t>Medio verifica Indicador 6189</t>
+        </is>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -959,17 +954,17 @@
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.-  Concertar acuerdos de colaboración con autoridades federales, estatales y municipales para instituir la politica energética en el Estado de Querétaro.</t>
+          <t>1.1.2.-  Suscribir acuerdos, convenios, contratos y asociaciones estratégicas para el desarrollo de actividades vinculadas con proyectos energéticos.</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>4771</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>Concretar acuerdos con al menos 10 de las autoridades federales, estatales y municipales con las que se relacione la AEEQ</t>
+          <t>Contar con acuerdos, convenios, contratos y asociaciones estratégicas con al menos 15 instituciones </t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
@@ -984,7 +979,7 @@
       </c>
       <c r="N22" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6189</t>
+          <t>Medio verifica Indicador 6190</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1002,17 @@
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>1.1.2.-  Suscribir acuerdos, convenios, contratos y asociaciones estratégicas para el desarrollo de actividades vinculadas con proyectos energéticos.</t>
+          <t>1.2.2.- Crear un Fideicomiso para el desarrollo energético sustentable que permita financiar la  implementación de programas y proyectos en el  Estado de Querétaro.</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>Contar con acuerdos, convenios, contratos y asociaciones estratégicas con al menos 15 instituciones </t>
+          <t>Contar con el Fideicomiso para el Desarrollo Energético Sustentable</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
@@ -1032,7 +1027,7 @@
       </c>
       <c r="N23" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6190</t>
+          <t>Medio verifica Indicador 6186</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1050,17 @@
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>1.2.2.- Crear un Fideicomiso para el desarrollo energético sustentable que permita financiar la  implementación de programas y proyectos en el  Estado de Querétaro.</t>
+          <t>1.Aplicar el programa piloto de funcionamiento y operación adecuando las instalaciones con los materiales y recursos suficientes cumpliendo con el protocolo de higiene y distancia en conjunto con los instructores para calendarización de talleres en la casa del jubilado.</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>Contar con el Fideicomiso para el Desarrollo Energético Sustentable</t>
+          <t>Número de jubilados matriculados en servicios prestados por la casa del jubilado del trimestre corriente/Número de jubilados matriculados en servicios prestados en el mismo trimetre del año 2019</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -1080,7 +1075,7 @@
       </c>
       <c r="N24" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6186</t>
+          <t>Medio verifica Indicador 6413</t>
         </is>
       </c>
     </row>
@@ -1103,17 +1098,17 @@
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>1.Aplicar el programa piloto de funcionamiento y operación adecuando las instalaciones con los materiales y recursos suficientes cumpliendo con el protocolo de higiene y distancia en conjunto con los instructores para calendarización de talleres en la casa del jubilado.</t>
+          <t>10.1.2.- Promover proyectos de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>Número de jubilados matriculados en servicios prestados por la casa del jubilado del trimestre corriente/Número de jubilados matriculados en servicios prestados en el mismo trimetre del año 2019</t>
+          <t>Contar con un programa de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
@@ -1128,7 +1123,7 @@
       </c>
       <c r="N25" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6413</t>
+          <t>Medio verifica Indicador 6187</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1146,17 @@
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>10.1.2.- Promover proyectos de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
+          <t>9.1.1.-  Creación de ventanilla única para los trámites de proyectos que impulsan el desarrollo energetico.</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>4770</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Contar con un programa de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
+          <t>Contar con una ventanilla única para la realización de trámites de proyectos de impulso al desarrollo energético</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
@@ -1176,7 +1171,7 @@
       </c>
       <c r="N26" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6187</t>
+          <t>Medio verifica Indicador 6188</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1194,17 @@
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>9.1.1.-  Creación de ventanilla única para los trámites de proyectos que impulsan el desarrollo energetico.</t>
+          <t>Adjudicar y formalizar contratos de servicios de Comunicación Social.</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>4962</t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>Contar con una ventanilla única para la realización de trámites de proyectos de impulso al desarrollo energético</t>
+          <t>Registros en Sistema ComSoc</t>
         </is>
       </c>
       <c r="I27" s="0" t="inlineStr">
@@ -1224,7 +1219,7 @@
       </c>
       <c r="N27" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6188</t>
+          <t>Medio verifica Indicador 6409</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1242,17 @@
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>Adjudicar y formalizar contratos de servicios de Comunicación Social.</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>Registros en Sistema ComSoc</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
@@ -1272,7 +1267,7 @@
       </c>
       <c r="N28" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6409</t>
+          <t>Medio verifica Indicador 6976</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1290,17 @@
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Alineación Jurídica en de la Ley Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Subir puntuación en el Subindicador de políticas del Indicador Nacional de Mejora Regulatoria al 100, considerando la calificación actual es de 87.</t>
         </is>
       </c>
       <c r="I29" s="0" t="inlineStr">
@@ -1320,7 +1315,7 @@
       </c>
       <c r="N29" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6976</t>
+          <t>Medio verifica Indicador 7034</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1338,17 @@
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>Alineación Jurídica en de la Ley Estatal de Mejora Regulatoria</t>
+          <t>Alineación Jurídica en materia de regulación secundaria de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
-          <t>Subir puntuación en el Subindicador de políticas del Indicador Nacional de Mejora Regulatoria al 100, considerando la calificación actual es de 87.</t>
+          <t>Total de lineamientos publicados/Total de lineamientos elaborados</t>
         </is>
       </c>
       <c r="I30" s="0" t="inlineStr">
@@ -1368,7 +1363,7 @@
       </c>
       <c r="N30" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7034</t>
+          <t>Medio verifica Indicador 7035</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1386,17 @@
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>Alineación Jurídica en materia de regulación secundaria de Mejora Regulatoria</t>
+          <t>Analizar los procesos de las direcciones para identificar los que requieren atención inmediata para proponer a las Direcciones involucradas un proyecto de trabajo de automatización..</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>Total de lineamientos publicados/Total de lineamientos elaborados</t>
+          <t>Número de sistemas implementados contra procesos a simplificar.</t>
         </is>
       </c>
       <c r="I31" s="0" t="inlineStr">
@@ -1416,7 +1411,7 @@
       </c>
       <c r="N31" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7035</t>
+          <t>Medio verifica Indicador 6420</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1434,17 @@
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>Analizar los procesos de las direcciones para identificar los que requieren atención inmediata para proponer a las Direcciones involucradas un proyecto de trabajo de automatización..</t>
+          <t>Análisis de deficiencias del inventario para identificación de las áreas de oportunidad e implementación del plan anual de registro de bienes muebles e inmuebles</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>Número de sistemas implementados contra procesos a simplificar.</t>
+          <t>Expedientes integrados de bienes muebles e inmuebles / total de expedientes de bienes muebles e inmuebles</t>
         </is>
       </c>
       <c r="I32" s="0" t="inlineStr">
@@ -1464,7 +1459,7 @@
       </c>
       <c r="N32" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6420</t>
+          <t>Medio verifica Indicador 6422</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1482,17 @@
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>Análisis de deficiencias del inventario para identificación de las áreas de oportunidad e implementación del plan anual de registro de bienes muebles e inmuebles</t>
+          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>Expedientes integrados de bienes muebles e inmuebles / total de expedientes de bienes muebles e inmuebles</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="I33" s="0" t="inlineStr">
@@ -1512,7 +1507,7 @@
       </c>
       <c r="N33" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6422</t>
+          <t>Medio verifica Indicador 6991</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1530,12 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="G34" s="0" t="inlineStr">
@@ -1560,7 +1555,7 @@
       </c>
       <c r="N34" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6991</t>
+          <t>Medio verifica Indicador 6993</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1578,17 @@
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Arranque del Sistema</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2025</t>
         </is>
       </c>
       <c r="I35" s="0" t="inlineStr">
@@ -1608,7 +1603,7 @@
       </c>
       <c r="N35" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6993</t>
+          <t>Medio verifica Indicador 6981</t>
         </is>
       </c>
     </row>
@@ -1631,17 +1626,17 @@
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>Arranque del Sistema</t>
+          <t>Auditoría de diagnóstico, capacitación en la implementación de la norma, gestión con los directores y verificación de cumplimiento</t>
         </is>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>4969</t>
         </is>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2025</t>
+          <t>Número de etapas concluidas en la preparación para la certificación concluidas/Número total de etapas en la preparación para la certificación</t>
         </is>
       </c>
       <c r="I36" s="0" t="inlineStr">
@@ -1656,7 +1651,7 @@
       </c>
       <c r="N36" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6981</t>
+          <t>Medio verifica Indicador 6416</t>
         </is>
       </c>
     </row>
@@ -1679,17 +1674,17 @@
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Auditoría de diagnóstico, capacitación en la implementación de la norma, gestión con los directores y verificación de cumplimiento</t>
+          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>4969</t>
+          <t>5524</t>
         </is>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
-          <t>Número de etapas concluidas en la preparación para la certificación concluidas/Número total de etapas en la preparación para la certificación</t>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="I37" s="0" t="inlineStr">
@@ -1704,7 +1699,7 @@
       </c>
       <c r="N37" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6416</t>
+          <t>Medio verifica Indicador 6988</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1722,17 @@
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
+          <t>Autoridad Certificadora</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>5506</t>
         </is>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
@@ -1752,7 +1747,7 @@
       </c>
       <c r="N38" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6988</t>
+          <t>Medio verifica Indicador 6970</t>
         </is>
       </c>
     </row>
@@ -1775,17 +1770,17 @@
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>Autoridad Certificadora</t>
+          <t>Balance Presupuestario</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>5522</t>
         </is>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="I39" s="0" t="inlineStr">
@@ -1800,7 +1795,7 @@
       </c>
       <c r="N39" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6970</t>
+          <t>Medio verifica Indicador 6986</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1818,17 @@
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>Balance Presupuestario</t>
+          <t>Cambio de sistema de control de combustible Extrayiendo el código de barras del parque vehícular del Poder Ejecutivo del Estado de Querétaro y colocar el mecanismo de control RFID</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>5522</t>
+          <t>4977</t>
         </is>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Unidades vehículares con sistema RFID instalado para la carga de combustible/ total de unidades vehiculares con codigo de barras susceptibles a cambiar de sistema de carga de cpmbustible.</t>
         </is>
       </c>
       <c r="I40" s="0" t="inlineStr">
@@ -1848,7 +1843,7 @@
       </c>
       <c r="N40" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6986</t>
+          <t>Medio verifica Indicador 6424</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1866,17 @@
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>Cambio de sistema de control de combustible Extrayiendo el código de barras del parque vehícular del Poder Ejecutivo del Estado de Querétaro y colocar el mecanismo de control RFID</t>
+          <t>Capacitar al personal de jefe de departamento u homologos, directores y titulares de las dependencias del sector centralizado del Poder Ejecutivo del Estado de Querétaro en el curso de Alineación Positiva, a excepeción de la Secretaría de Seguridad Ciuddana</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>Unidades vehículares con sistema RFID instalado para la carga de combustible/ total de unidades vehiculares con codigo de barras susceptibles a cambiar de sistema de carga de cpmbustible.</t>
+          <t>Número de Servidores Públicos capacitados en alineación positiva / el número de Servidores publicos de primer nivel del sector centralizado del Poder Ejecutivo susceptible a capacitarse durante cada trimestre</t>
         </is>
       </c>
       <c r="I41" s="0" t="inlineStr">
@@ -1896,7 +1891,7 @@
       </c>
       <c r="N41" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6424</t>
+          <t>Medio verifica Indicador 6412</t>
         </is>
       </c>
     </row>
@@ -1919,17 +1914,17 @@
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>Capacitar al personal de jefe de departamento u homologos, directores y titulares de las dependencias del sector centralizado del Poder Ejecutivo del Estado de Querétaro en el curso de Alineación Positiva, a excepeción de la Secretaría de Seguridad Ciuddana</t>
+          <t>Catastro web</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
-          <t>Número de Servidores Públicos capacitados en alineación positiva / el número de Servidores publicos de primer nivel del sector centralizado del Poder Ejecutivo susceptible a capacitarse durante cada trimestre</t>
+          <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
       <c r="I42" s="0" t="inlineStr">
@@ -1944,7 +1939,7 @@
       </c>
       <c r="N42" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6412</t>
+          <t>Medio verifica Indicador 6974</t>
         </is>
       </c>
     </row>
@@ -1967,17 +1962,17 @@
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>Catastro web</t>
+          <t>Centralizar la estrategia de recaudación</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro </t>
+          <t>Monto acumulado de contribuciones estatales</t>
         </is>
       </c>
       <c r="I43" s="0" t="inlineStr">
@@ -1992,7 +1987,7 @@
       </c>
       <c r="N43" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6974</t>
+          <t>Medio verifica Indicador 6995</t>
         </is>
       </c>
     </row>
@@ -2015,17 +2010,17 @@
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>Centralizar la estrategia de recaudación</t>
+          <t>Control de actividades por cuadrillas, entradas diferidas para extensión de horario sin el uso de horas extra, reducción de primas sabatinas y dominicales</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
-          <t>Monto acumulado de contribuciones estatales</t>
+          <t>Gasto de mes corriente en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor/Gastos de mes corriente del año inmediato anerior en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
@@ -2040,7 +2035,7 @@
       </c>
       <c r="N44" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6995</t>
+          <t>Medio verifica Indicador 6411</t>
         </is>
       </c>
     </row>
@@ -2063,17 +2058,17 @@
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>Control de actividades por cuadrillas, entradas diferidas para extensión de horario sin el uso de horas extra, reducción de primas sabatinas y dominicales</t>
+          <t>Coordinar esfuerzos con las Dependencias y Organismos Públicos, para detectar las necesidades en los municipios del Estado de Querétaro, para incrementar 60 servicios de internet gratuito en educación media y media superior.</t>
         </is>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
-          <t>Gasto de mes corriente en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor/Gastos de mes corriente del año inmediato anerior en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor</t>
+          <t>Número de servicios de internet instalados durante el trimestre/ Número de servicios susceptibles a instalarse de manera adicional a lo largo del año en curso</t>
         </is>
       </c>
       <c r="I45" s="0" t="inlineStr">
@@ -2088,7 +2083,7 @@
       </c>
       <c r="N45" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6411</t>
+          <t>Medio verifica Indicador 6415</t>
         </is>
       </c>
     </row>
@@ -2111,17 +2106,17 @@
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>Coordinar esfuerzos con las Dependencias y Organismos Públicos, para detectar las necesidades en los municipios del Estado de Querétaro, para incrementar 60 servicios de internet gratuito en educación media y media superior.</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>4968</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
-          <t>Número de servicios de internet instalados durante el trimestre/ Número de servicios susceptibles a instalarse de manera adicional a lo largo del año en curso</t>
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital /Total de etapas para la implementación de la plataforma digital.</t>
         </is>
       </c>
       <c r="I46" s="0" t="inlineStr">
@@ -2136,7 +2131,7 @@
       </c>
       <c r="N46" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6415</t>
+          <t>Medio verifica Indicador 6423</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2154,17 @@
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital /Total de etapas para la implementación de la plataforma digital.</t>
+          <t>Número de etapas concluidas para la puesta en marcha del aplicativo web para el arrendamiento de inmuebles a cargo de Oficialía Mayor/ Total de etapas para la puesta en marcha del portal web para el arrendamiento de inmuebles a cargo de Oficialía Mayor</t>
         </is>
       </c>
       <c r="I47" s="0" t="inlineStr">
@@ -2184,7 +2179,7 @@
       </c>
       <c r="N47" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6423</t>
+          <t>Medio verifica Indicador 6421</t>
         </is>
       </c>
     </row>
@@ -2207,17 +2202,17 @@
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
+          <t>Dar difusión a las actividades que se realizan en la administración pública estatal y presentar posicionamientos de interés general a través de la publicación de boletines en el portal de Prensa http://www.queretaro.gob.mx/prensa</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>4963</t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
-          <t>Número de etapas concluidas para la puesta en marcha del aplicativo web para el arrendamiento de inmuebles a cargo de Oficialía Mayor/ Total de etapas para la puesta en marcha del portal web para el arrendamiento de inmuebles a cargo de Oficialía Mayor</t>
+          <t>Boletines de prensa alojados en http://www.queretaro.gob.mx/prensa</t>
         </is>
       </c>
       <c r="I48" s="0" t="inlineStr">
@@ -2232,7 +2227,7 @@
       </c>
       <c r="N48" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6421</t>
+          <t>Medio verifica Indicador 6410</t>
         </is>
       </c>
     </row>
@@ -2255,17 +2250,17 @@
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>Dar difusión a las actividades que se realizan en la administración pública estatal y presentar posicionamientos de interés general a través de la publicación de boletines en el portal de Prensa http://www.queretaro.gob.mx/prensa</t>
+          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>4963</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="G49" s="0" t="inlineStr">
         <is>
-          <t>Boletines de prensa alojados en http://www.queretaro.gob.mx/prensa</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
@@ -2280,7 +2275,7 @@
       </c>
       <c r="N49" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6410</t>
+          <t>Medio verifica Indicador 6998</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2298,17 @@
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
-          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
+          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
         </is>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>5523</t>
         </is>
       </c>
       <c r="G50" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="I50" s="0" t="inlineStr">
@@ -2328,7 +2323,7 @@
       </c>
       <c r="N50" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6998</t>
+          <t>Medio verifica Indicador 6987</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2346,17 @@
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
+          <t>Eficiencia de procesos administrativos, financieros y contables</t>
         </is>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>5523</t>
+          <t>5514</t>
         </is>
       </c>
       <c r="G51" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
         </is>
       </c>
       <c r="I51" s="0" t="inlineStr">
@@ -2376,7 +2371,7 @@
       </c>
       <c r="N51" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6987</t>
+          <t>Medio verifica Indicador 6978</t>
         </is>
       </c>
     </row>
@@ -2399,17 +2394,17 @@
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia de procesos administrativos, financieros y contables</t>
+          <t>Ejecutar el Programa Anual de Comunicación Social 2022</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="G52" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+          <t>Porcentaje de campañas realizadas</t>
         </is>
       </c>
       <c r="I52" s="0" t="inlineStr">
@@ -2424,7 +2419,7 @@
       </c>
       <c r="N52" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6978</t>
+          <t>Medio verifica Indicador 6408</t>
         </is>
       </c>
     </row>
@@ -2447,17 +2442,17 @@
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>Ejecutar el Programa Anual de Comunicación Social 2022</t>
+          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
         </is>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>4961</t>
+          <t>5518</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de campañas realizadas</t>
+          <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
         </is>
       </c>
       <c r="I53" s="0" t="inlineStr">
@@ -2472,7 +2467,7 @@
       </c>
       <c r="N53" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6408</t>
+          <t>Medio verifica Indicador 6982</t>
         </is>
       </c>
     </row>
@@ -2495,17 +2490,17 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
+          <t>Esquemas innovadores de financiamiento</t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
       <c r="I54" s="0" t="inlineStr">
@@ -2520,7 +2515,7 @@
       </c>
       <c r="N54" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6982</t>
+          <t>Medio verifica Indicador 6983</t>
         </is>
       </c>
     </row>
@@ -2543,17 +2538,17 @@
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>Esquemas innovadores de financiamiento</t>
+          <t>Fiscalización Digital </t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
         </is>
       </c>
       <c r="I55" s="0" t="inlineStr">
@@ -2568,7 +2563,7 @@
       </c>
       <c r="N55" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6983</t>
+          <t>Medio verifica Indicador 6996</t>
         </is>
       </c>
     </row>
@@ -2591,17 +2586,17 @@
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización Digital </t>
+          <t>Fiscalización y elaboración de informes derivados de las auditorias a las diferentes áreas de la Oficialía Mayor</t>
         </is>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>4970</t>
         </is>
       </c>
       <c r="G56" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
+          <t>Número de informes realizados/ Número de auditorías</t>
         </is>
       </c>
       <c r="I56" s="0" t="inlineStr">
@@ -2616,7 +2611,7 @@
       </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6996</t>
+          <t>Medio verifica Indicador 6417</t>
         </is>
       </c>
     </row>
@@ -2639,17 +2634,17 @@
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización y elaboración de informes derivados de las auditorias a las diferentes áreas de la Oficialía Mayor</t>
+          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>4970</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
         <is>
-          <t>Número de informes realizados/ Número de auditorías</t>
+          <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
         </is>
       </c>
       <c r="I57" s="0" t="inlineStr">
@@ -2664,7 +2659,7 @@
       </c>
       <c r="N57" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6417</t>
+          <t>Medio verifica Indicador 6977</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2682,17 @@
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
+          <t>Gestión de canales de recaudación</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
         </is>
       </c>
       <c r="I58" s="0" t="inlineStr">
@@ -2712,7 +2707,7 @@
       </c>
       <c r="N58" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6977</t>
+          <t>Medio verifica Indicador 7005</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2730,17 @@
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Gestión de canales de recaudación</t>
+          <t>Identificar que dependencias requieren atención inmediata, ya sea por no tener manuales administrativos autorizados o porque los que tienen ya son obsoletos.</t>
         </is>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+          <t>Número de manuales actualizados / Total de manuales a actualizar</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
@@ -2760,7 +2755,7 @@
       </c>
       <c r="N59" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7005</t>
+          <t>Medio verifica Indicador 6414</t>
         </is>
       </c>
     </row>
@@ -2783,17 +2778,17 @@
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Identificar que dependencias requieren atención inmediata, ya sea por no tener manuales administrativos autorizados o porque los que tienen ya son obsoletos.</t>
+          <t>Implementación del sistema</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>5516</t>
         </is>
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>Número de manuales actualizados / Total de manuales a actualizar</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2024</t>
         </is>
       </c>
       <c r="I60" s="0" t="inlineStr">
@@ -2808,7 +2803,7 @@
       </c>
       <c r="N60" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6414</t>
+          <t>Medio verifica Indicador 6980</t>
         </is>
       </c>
     </row>
@@ -2831,17 +2826,17 @@
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Implementación del sistema</t>
+          <t>Implementar el Análisis de Impacto Regulatorio</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>5516</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2024</t>
+          <t>Total de anteproyectos con costos analizadas /Total de anteproyectos recibidos</t>
         </is>
       </c>
       <c r="I61" s="0" t="inlineStr">
@@ -2856,7 +2851,7 @@
       </c>
       <c r="N61" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6980</t>
+          <t>Medio verifica Indicador 7037</t>
         </is>
       </c>
     </row>
@@ -2879,17 +2874,17 @@
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Implementar el Análisis de Impacto Regulatorio</t>
+          <t>Implementar el programa de mejora regulatoria 2022</t>
         </is>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5581</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
         <is>
-          <t>Total de anteproyectos con costos analizadas /Total de anteproyectos recibidos</t>
+          <t>Total de Responsables Oficiales capacitados/ total de Responsables Oficiales existentes</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
@@ -2904,7 +2899,7 @@
       </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7037</t>
+          <t>Medio verifica Indicador 7045</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2922,17 @@
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Implementar el programa de mejora regulatoria 2022</t>
+          <t>Implementar la estrategia de análisis de trámites prioritarios</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>5581</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>Total de Responsables Oficiales capacitados/ total de Responsables Oficiales existentes</t>
+          <t>Total de diagnósticos elaborados/ Total de diagnósticos programados</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
@@ -2952,7 +2947,7 @@
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7045</t>
+          <t>Medio verifica Indicador 7040</t>
         </is>
       </c>
     </row>
@@ -2975,69 +2970,69 @@
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>Implementar la estrategia de análisis de trámites prioritarios</t>
+          <t>Implementar la herramienta de Agenda Regulatoria</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>5576</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
-        <is>
-          <t>Total de diagnósticos elaborados/ Total de diagnósticos programados</t>
-        </is>
-      </c>
-      <c r="I64" s="0" t="inlineStr">
-        <is>
-          <t>Semanal</t>
-        </is>
-      </c>
-      <c r="L64" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-      <c r="N64" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7040</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C65" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t>Implementar la herramienta de Agenda Regulatoria</t>
-        </is>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
           <t>5572</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>1. Regulaciones publicadas/Propuestas regulatorias agendadas.
 2. Porcentaje de reducción del costo de trámites y servicios/Porcentaje de reducción del costo de trámites y servicios programado.
 3. Regulaciones dictaminadas/Regulaciones publicadas.</t>
         </is>
       </c>
+      <c r="I64" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L64" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="N64" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7036</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>poa</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>Implementar un nuevo Registro de Trámites y Servicios</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>5579</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>Total de Campos actualizados/ Total de campos solicitados</t>
+        </is>
+      </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
           <t>Semanal</t>
@@ -3050,7 +3045,7 @@
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7036</t>
+          <t>Medio verifica Indicador 7043</t>
         </is>
       </c>
     </row>
@@ -3073,17 +3068,17 @@
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Implementar un nuevo Registro de Trámites y Servicios</t>
+          <t>Implementar un nuevo mecanismo de protesta ciudadana</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>Total de Campos actualizados/ Total de campos solicitados</t>
+          <t>Total de trámites actualizados/Total de trámites inscritos</t>
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
@@ -3098,7 +3093,7 @@
       </c>
       <c r="N66" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7043</t>
+          <t>Medio verifica Indicador 7041</t>
         </is>
       </c>
     </row>
@@ -3121,17 +3116,17 @@
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>Implementar un nuevo mecanismo de protesta ciudadana</t>
+          <t>Implementar una Ventanilla Digital de Trámites en el estado</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>5582</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
         <is>
-          <t>Total de trámites actualizados/Total de trámites inscritos</t>
+          <t>Trámites digitalizados / Trámites identificados en el diagnóstico de la OCDE</t>
         </is>
       </c>
       <c r="I67" s="0" t="inlineStr">
@@ -3146,7 +3141,7 @@
       </c>
       <c r="N67" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7041</t>
+          <t>Medio verifica Indicador 7046</t>
         </is>
       </c>
     </row>
@@ -3167,19 +3162,20 @@
           <t>poa</t>
         </is>
       </c>
-      <c r="E68" s="0" t="inlineStr">
-        <is>
-          <t>Implementar una Ventanilla Digital de Trámites en el estado</t>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Implementar una nueva plataforma de Visitas Domiciliarias
+</t>
         </is>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>5578</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>Trámites digitalizados / Trámites identificados en el diagnóstico de la OCDE</t>
+          <t>Total de Campos actualizados/ Total de campos solicitados</t>
         </is>
       </c>
       <c r="I68" s="0" t="inlineStr">
@@ -3194,7 +3190,7 @@
       </c>
       <c r="N68" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7046</t>
+          <t>Medio verifica Indicador 7042</t>
         </is>
       </c>
     </row>
@@ -3215,20 +3211,19 @@
           <t>poa</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Implementar una nueva plataforma de Visitas Domiciliarias
-</t>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>Implementar una red de enlaces y subalternos en materia de mejora regulatoria</t>
         </is>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5580</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>Total de Campos actualizados/ Total de campos solicitados</t>
+          <t>Total de Responsables Oficiales registrados/ Total de Responsables oficiales</t>
         </is>
       </c>
       <c r="I69" s="0" t="inlineStr">
@@ -3243,7 +3238,7 @@
       </c>
       <c r="N69" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7042</t>
+          <t>Medio verifica Indicador 7044</t>
         </is>
       </c>
     </row>
@@ -3266,17 +3261,17 @@
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>Implementar una red de enlaces y subalternos en materia de mejora regulatoria</t>
+          <t>Implementar una revisión de los compromisos de la Agenda Regulatoria</t>
         </is>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>5580</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="G70" s="0" t="inlineStr">
         <is>
-          <t>Total de Responsables Oficiales registrados/ Total de Responsables oficiales</t>
+          <t>Total de propuestas regulatorias inscritas en Agenda Regulatoria/ Total de excepciones de Agenda Regulatoria solicitadas</t>
         </is>
       </c>
       <c r="I70" s="0" t="inlineStr">
@@ -3291,7 +3286,7 @@
       </c>
       <c r="N70" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7044</t>
+          <t>Medio verifica Indicador 7038</t>
         </is>
       </c>
     </row>
@@ -3314,17 +3309,17 @@
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>Implementar una revisión de los compromisos de la Agenda Regulatoria</t>
+          <t>Impuestos ecológicos</t>
         </is>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="G71" s="0" t="inlineStr">
         <is>
-          <t>Total de propuestas regulatorias inscritas en Agenda Regulatoria/ Total de excepciones de Agenda Regulatoria solicitadas</t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="I71" s="0" t="inlineStr">
@@ -3339,7 +3334,7 @@
       </c>
       <c r="N71" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7038</t>
+          <t>Medio verifica Indicador 7003</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3357,17 @@
       </c>
       <c r="E72" s="0" t="inlineStr">
         <is>
-          <t>Impuestos ecológicos</t>
+          <t>Incentivos Fiscales</t>
         </is>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>5542</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
         </is>
       </c>
       <c r="I72" s="0" t="inlineStr">
@@ -3387,7 +3382,7 @@
       </c>
       <c r="N72" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7003</t>
+          <t>Medio verifica Indicador 7006</t>
         </is>
       </c>
     </row>
@@ -3410,17 +3405,17 @@
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
-          <t>Incentivos Fiscales</t>
+          <t>Inicio de Certificaciones</t>
         </is>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>5542</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+          <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="I73" s="0" t="inlineStr">
@@ -3435,7 +3430,7 @@
       </c>
       <c r="N73" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7006</t>
+          <t>Medio verifica Indicador 6971</t>
         </is>
       </c>
     </row>
@@ -3456,19 +3451,20 @@
           <t>poa</t>
         </is>
       </c>
-      <c r="E74" s="0" t="inlineStr">
-        <is>
-          <t>Inicio de Certificaciones</t>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Marco Normativo 
+(FIEL ESTATAL)</t>
         </is>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="G74" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
+          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
       <c r="I74" s="0" t="inlineStr">
@@ -3483,7 +3479,7 @@
       </c>
       <c r="N74" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6971</t>
+          <t>Medio verifica Indicador 6969</t>
         </is>
       </c>
     </row>
@@ -3504,20 +3500,19 @@
           <t>poa</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>Marco Normativo 
-(FIEL ESTATAL)</t>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>Mejorar las condiciones financieras</t>
         </is>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>5528</t>
         </is>
       </c>
       <c r="G75" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="I75" s="0" t="inlineStr">
@@ -3532,7 +3527,7 @@
       </c>
       <c r="N75" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6969</t>
+          <t>Medio verifica Indicador 6992</t>
         </is>
       </c>
     </row>
@@ -3555,17 +3550,17 @@
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>Mejorar las condiciones financieras</t>
+          <t>Planeación para la implementación del nuevo sistema</t>
         </is>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>5528</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="G76" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2023</t>
         </is>
       </c>
       <c r="I76" s="0" t="inlineStr">
@@ -3580,7 +3575,7 @@
       </c>
       <c r="N76" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6992</t>
+          <t>Medio verifica Indicador 6979</t>
         </is>
       </c>
     </row>
@@ -3603,17 +3598,17 @@
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>Planeación para la implementación del nuevo sistema</t>
+          <t>Planificar acciones</t>
         </is>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="G77" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2023</t>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
       <c r="I77" s="0" t="inlineStr">
@@ -3628,7 +3623,7 @@
       </c>
       <c r="N77" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6979</t>
+          <t>Medio verifica Indicador 6984</t>
         </is>
       </c>
     </row>
@@ -3651,17 +3646,17 @@
       </c>
       <c r="E78" s="0" t="inlineStr">
         <is>
-          <t>Planificar acciones</t>
+          <t>Portal web público</t>
         </is>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5530</t>
         </is>
       </c>
       <c r="G78" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="I78" s="0" t="inlineStr">
@@ -3676,7 +3671,7 @@
       </c>
       <c r="N78" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6984</t>
+          <t>Medio verifica Indicador 6994</t>
         </is>
       </c>
     </row>
@@ -3699,17 +3694,17 @@
       </c>
       <c r="E79" s="0" t="inlineStr">
         <is>
-          <t>Portal web público</t>
+          <t>Preparar los expedientes a través de la clasificación de los documentos, categorizando cada uno de ellos, renombrando con la clave registrada en cada uno de sus departamentos de la dirección de recursos humanos.</t>
         </is>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>4972</t>
         </is>
       </c>
       <c r="G79" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Número de expedientes digitalizados de servidores públicos activos/ Expedientes de servidores públicos Activos</t>
         </is>
       </c>
       <c r="I79" s="0" t="inlineStr">
@@ -3724,7 +3719,7 @@
       </c>
       <c r="N79" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6994</t>
+          <t>Medio verifica Indicador 6419</t>
         </is>
       </c>
     </row>
@@ -3747,17 +3742,17 @@
       </c>
       <c r="E80" s="0" t="inlineStr">
         <is>
-          <t>Preparar los expedientes a través de la clasificación de los documentos, categorizando cada uno de ellos, renombrando con la clave registrada en cada uno de sus departamentos de la dirección de recursos humanos.</t>
+          <t>Priorización del Gasto</t>
         </is>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>4972</t>
+          <t>5525</t>
         </is>
       </c>
       <c r="G80" s="0" t="inlineStr">
         <is>
-          <t>Número de expedientes digitalizados de servidores públicos activos/ Expedientes de servidores públicos Activos</t>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="I80" s="0" t="inlineStr">
@@ -3772,7 +3767,7 @@
       </c>
       <c r="N80" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6419</t>
+          <t>Medio verifica Indicador 6989</t>
         </is>
       </c>
     </row>
@@ -3795,17 +3790,17 @@
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>Priorización del Gasto</t>
+          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
         </is>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>5525</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="I81" s="0" t="inlineStr">
@@ -3820,7 +3815,7 @@
       </c>
       <c r="N81" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6989</t>
+          <t>Medio verifica Indicador 6999</t>
         </is>
       </c>
     </row>
@@ -3843,17 +3838,17 @@
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
+          <t>Proceso de reformas</t>
         </is>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="G82" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
       <c r="I82" s="0" t="inlineStr">
@@ -3868,7 +3863,7 @@
       </c>
       <c r="N82" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6999</t>
+          <t>Medio verifica Indicador 6985</t>
         </is>
       </c>
     </row>
@@ -3891,17 +3886,17 @@
       </c>
       <c r="E83" s="0" t="inlineStr">
         <is>
-          <t>Proceso de reformas</t>
+          <t>Procuraduría digital</t>
         </is>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="G83" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="I83" s="0" t="inlineStr">
@@ -3916,7 +3911,7 @@
       </c>
       <c r="N83" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6985</t>
+          <t>Medio verifica Indicador 7000</t>
         </is>
       </c>
     </row>
@@ -3939,17 +3934,17 @@
       </c>
       <c r="E84" s="0" t="inlineStr">
         <is>
-          <t>Procuraduría digital</t>
+          <t>Programa Anual de Capacitación </t>
         </is>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>5544</t>
         </is>
       </c>
       <c r="G84" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
         </is>
       </c>
       <c r="I84" s="0" t="inlineStr">
@@ -3964,7 +3959,7 @@
       </c>
       <c r="N84" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7000</t>
+          <t>Medio verifica Indicador 7008</t>
         </is>
       </c>
     </row>
@@ -3987,17 +3982,17 @@
       </c>
       <c r="E85" s="0" t="inlineStr">
         <is>
-          <t>Programa Anual de Capacitación </t>
+          <t>Programa de regularización de tenencia</t>
         </is>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>5538</t>
         </is>
       </c>
       <c r="G85" s="0" t="inlineStr">
         <is>
-          <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="I85" s="0" t="inlineStr">
@@ -4012,7 +4007,7 @@
       </c>
       <c r="N85" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7008</t>
+          <t>Medio verifica Indicador 7002</t>
         </is>
       </c>
     </row>
@@ -4035,17 +4030,17 @@
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>Programa de regularización de tenencia</t>
+          <t>Programa nuevas placas</t>
         </is>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="I86" s="0" t="inlineStr">
@@ -4060,7 +4055,7 @@
       </c>
       <c r="N86" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7002</t>
+          <t>Medio verifica Indicador 7001</t>
         </is>
       </c>
     </row>
@@ -4083,17 +4078,17 @@
       </c>
       <c r="E87" s="0" t="inlineStr">
         <is>
-          <t>Programa nuevas placas</t>
+          <t>Protocolo de Mejora Interna</t>
         </is>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>5545</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
         </is>
       </c>
       <c r="I87" s="0" t="inlineStr">
@@ -4108,7 +4103,7 @@
       </c>
       <c r="N87" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7001</t>
+          <t>Medio verifica Indicador 7009</t>
         </is>
       </c>
     </row>
@@ -4131,17 +4126,17 @@
       </c>
       <c r="E88" s="0" t="inlineStr">
         <is>
-          <t>Protocolo de Mejora Interna</t>
+          <t>Proyecto integral de captación de ingresos municipales</t>
         </is>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>5540</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="I88" s="0" t="inlineStr">
@@ -4156,7 +4151,7 @@
       </c>
       <c r="N88" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7009</t>
+          <t>Medio verifica Indicador 7004</t>
         </is>
       </c>
     </row>
@@ -4179,17 +4174,17 @@
       </c>
       <c r="E89" s="0" t="inlineStr">
         <is>
-          <t>Proyecto integral de captación de ingresos municipales</t>
+          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
         </is>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>5526</t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="I89" s="0" t="inlineStr">
@@ -4204,7 +4199,7 @@
       </c>
       <c r="N89" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7004</t>
+          <t>Medio verifica Indicador 6990</t>
         </is>
       </c>
     </row>
@@ -4227,17 +4222,17 @@
       </c>
       <c r="E90" s="0" t="inlineStr">
         <is>
-          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
+          <t>Realizar las sesiones del Consejo de Mejora Regulatoria y las mesas de trabajo de participación Ciudadana</t>
         </is>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>5575</t>
         </is>
       </c>
       <c r="G90" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Total de eventos realizados/Eventos programados</t>
         </is>
       </c>
       <c r="I90" s="0" t="inlineStr">
@@ -4252,7 +4247,7 @@
       </c>
       <c r="N90" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6990</t>
+          <t>Medio verifica Indicador 7039</t>
         </is>
       </c>
     </row>
@@ -4275,17 +4270,17 @@
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>Realizar las sesiones del Consejo de Mejora Regulatoria y las mesas de trabajo de participación Ciudadana</t>
+          <t>Reducir los tiempos de servicio de mantenimiento preventivo a unidades del Poder Ejecutivo del Estado de Querétaro en un tiempo promedio máximo de 2 días hábiles.</t>
         </is>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>4980</t>
         </is>
       </c>
       <c r="G91" s="0" t="inlineStr">
         <is>
-          <t>Total de eventos realizados/Eventos programados</t>
+          <t>Promedio del tiempo en servicio de servicio a unidades del Poder Ejecutivo</t>
         </is>
       </c>
       <c r="I91" s="0" t="inlineStr">
@@ -4300,7 +4295,7 @@
       </c>
       <c r="N91" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7039</t>
+          <t>Medio verifica Indicador 6427</t>
         </is>
       </c>
     </row>
@@ -4323,17 +4318,17 @@
       </c>
       <c r="E92" s="0" t="inlineStr">
         <is>
-          <t>Reducir los tiempos de servicio de mantenimiento preventivo a unidades del Poder Ejecutivo del Estado de Querétaro en un tiempo promedio máximo de 2 días hábiles.</t>
+          <t>Reestructura de procesos y procedimientos </t>
         </is>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>4980</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="G92" s="0" t="inlineStr">
         <is>
-          <t>Promedio del tiempo en servicio de servicio a unidades del Poder Ejecutivo</t>
+          <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
         </is>
       </c>
       <c r="I92" s="0" t="inlineStr">
@@ -4348,7 +4343,7 @@
       </c>
       <c r="N92" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6427</t>
+          <t>Medio verifica Indicador 7007</t>
         </is>
       </c>
     </row>
@@ -4371,17 +4366,17 @@
       </c>
       <c r="E93" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de procesos y procedimientos </t>
+          <t>Reestructura de página web</t>
         </is>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>5509</t>
         </is>
       </c>
       <c r="G93" s="0" t="inlineStr">
         <is>
-          <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
+          <t>Porcentaje de kilómetros actualizados respecto del total identificados</t>
         </is>
       </c>
       <c r="I93" s="0" t="inlineStr">
@@ -4396,7 +4391,7 @@
       </c>
       <c r="N93" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 7007</t>
+          <t>Medio verifica Indicador 6973</t>
         </is>
       </c>
     </row>
@@ -4419,17 +4414,17 @@
       </c>
       <c r="E94" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web</t>
+          <t>Reformas Fiscales</t>
         </is>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="G94" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de kilómetros actualizados respecto del total identificados</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="I94" s="0" t="inlineStr">
@@ -4444,7 +4439,7 @@
       </c>
       <c r="N94" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6973</t>
+          <t>Medio verifica Indicador 6997</t>
         </is>
       </c>
     </row>
@@ -4467,17 +4462,17 @@
       </c>
       <c r="E95" s="0" t="inlineStr">
         <is>
-          <t>Reformas Fiscales</t>
+          <t>Renovación de la flotilla vehicular en un arrendamiento integral que incluya mantenmientos preventivos, correctivos, gps, seguros, impuestos y derechos, entre otros.</t>
         </is>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="G95" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Total de unidades vehículares en operación /Total de unidades vehiculares suceptibles a operar.</t>
         </is>
       </c>
       <c r="I95" s="0" t="inlineStr">
@@ -4492,7 +4487,7 @@
       </c>
       <c r="N95" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6997</t>
+          <t>Medio verifica Indicador 6425</t>
         </is>
       </c>
     </row>
@@ -4515,17 +4510,17 @@
       </c>
       <c r="E96" s="0" t="inlineStr">
         <is>
-          <t>Renovación de la flotilla vehicular en un arrendamiento integral que incluya mantenmientos preventivos, correctivos, gps, seguros, impuestos y derechos, entre otros.</t>
+          <t>Revisión y actualización de los datos y documentos que integran los expedientes de bienes inmuebles propiedad del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>4971</t>
         </is>
       </c>
       <c r="G96" s="0" t="inlineStr">
         <is>
-          <t>Total de unidades vehículares en operación /Total de unidades vehiculares suceptibles a operar.</t>
+          <t>Expedientes con datos actualizados/ Total de expedientes de bienes inmuebles.</t>
         </is>
       </c>
       <c r="I96" s="0" t="inlineStr">
@@ -4540,7 +4535,7 @@
       </c>
       <c r="N96" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6425</t>
+          <t>Medio verifica Indicador 6418</t>
         </is>
       </c>
     </row>
@@ -4563,17 +4558,17 @@
       </c>
       <c r="E97" s="0" t="inlineStr">
         <is>
-          <t>Revisión y actualización de los datos y documentos que integran los expedientes de bienes inmuebles propiedad del Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Solicitar a cada Dependencia el informe de boletas de vehiculos que fueron verificados en tiempos establecidos por la Norma, y en su defecto dar a conocer a su Ente Fiscalizador para lo conducente.</t>
         </is>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="G97" s="0" t="inlineStr">
         <is>
-          <t>Expedientes con datos actualizados/ Total de expedientes de bienes inmuebles.</t>
+          <t>Porcentaje de vehiculos activos verificados en tiempos establecidos por la Normatividad</t>
         </is>
       </c>
       <c r="I97" s="0" t="inlineStr">
@@ -4588,7 +4583,7 @@
       </c>
       <c r="N97" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6418</t>
+          <t>Medio verifica Indicador 6426</t>
         </is>
       </c>
     </row>
@@ -4611,17 +4606,17 @@
       </c>
       <c r="E98" s="0" t="inlineStr">
         <is>
-          <t>Solicitar a cada Dependencia el informe de boletas de vehiculos que fueron verificados en tiempos establecidos por la Norma, y en su defecto dar a conocer a su Ente Fiscalizador para lo conducente.</t>
+          <t>Trámites en línea a través de la firma electrónica</t>
         </is>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>5508</t>
         </is>
       </c>
       <c r="G98" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de vehiculos activos verificados en tiempos establecidos por la Normatividad</t>
+          <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="I98" s="0" t="inlineStr">
@@ -4636,7 +4631,7 @@
       </c>
       <c r="N98" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6426</t>
+          <t>Medio verifica Indicador 6972</t>
         </is>
       </c>
     </row>
@@ -4659,17 +4654,17 @@
       </c>
       <c r="E99" s="0" t="inlineStr">
         <is>
-          <t>Trámites en línea a través de la firma electrónica</t>
+          <t>Vuelo fotogramétrico</t>
         </is>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>5511</t>
         </is>
       </c>
       <c r="G99" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
+          <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
       <c r="I99" s="0" t="inlineStr">
@@ -4683,54 +4678,6 @@
         </is>
       </c>
       <c r="N99" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 6972</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C100" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="E100" s="0" t="inlineStr">
-        <is>
-          <t>Vuelo fotogramétrico</t>
-        </is>
-      </c>
-      <c r="F100" s="0" t="inlineStr">
-        <is>
-          <t>5511</t>
-        </is>
-      </c>
-      <c r="G100" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria de Consultas a la página web de Catastro </t>
-        </is>
-      </c>
-      <c r="I100" s="0" t="inlineStr">
-        <is>
-          <t>Semanal</t>
-        </is>
-      </c>
-      <c r="L100" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-      <c r="N100" s="0" t="inlineStr">
         <is>
           <t>Medio verifica Indicador 6975</t>
         </is>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -96,11 +96,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo social e integral</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -108,11 +103,6 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -120,11 +110,6 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -132,11 +117,6 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -144,11 +124,6 @@
           <t>Gasto de Orden</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -204,7 +179,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 08:30:48 am</t>
+          <t>07-04-2022 01:31:15 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -495,7 +470,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -503,19 +478,29 @@
           <t>poa</t>
         </is>
       </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Entrega de apoyos escolares..</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>6003</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Indicador de Apoyos escolares 2</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>12334</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -523,16 +508,36 @@
           <t>Mensual</t>
         </is>
       </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>12434</t>
         </is>
       </c>
       <c r="O16" s="0">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA16" s="0">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -543,7 +548,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -551,19 +556,29 @@
           <t>poa</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Entrega de apoyos escolares..</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>6003</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Indicador de Apoyos escolares 2</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>12334</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -571,29 +586,48 @@
           <t>Mensual</t>
         </is>
       </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>B,A</t>
+        </is>
+      </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Plan</t>
-        </is>
-      </c>
-      <c r="P17" s="0">
-        <v>35</v>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>12434</t>
+        </is>
+      </c>
+      <c r="O17" s="0">
+        <v>1000</v>
+      </c>
+      <c r="AA17" s="0">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -601,19 +635,29 @@
           <t>poa</t>
         </is>
       </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Entrega de apoyos escolares..</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>6001</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Entrega de utiles escolares</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
@@ -621,16 +665,352 @@
           <t>Mensual</t>
         </is>
       </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>Cantidad de libros,Cantidad de utiles,Cantidad de mochilas</t>
+        </is>
+      </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Plan</t>
-        </is>
-      </c>
-      <c r="Q18" s="0">
-        <v>35</v>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7456</t>
+        </is>
+      </c>
+      <c r="O18" s="0">
+        <v>1500</v>
       </c>
       <c r="AA18" s="0">
-        <v>35</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>poa</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de apoyos escolares..</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de utiles escolares</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>Cantidad de libros,Cantidad de utiles,Cantidad de mochilas</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7456</t>
+        </is>
+      </c>
+      <c r="Y19" s="0">
+        <v>900</v>
+      </c>
+      <c r="AA19" s="0">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>poa</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de apoyos escolares..</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de utiles escolares</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>Cantidad de mochilas,Cantidad de libros,Cantidad de utiles</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7456</t>
+        </is>
+      </c>
+      <c r="T20" s="0">
+        <v>1200</v>
+      </c>
+      <c r="AA20" s="0">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>poa</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de apoyos escolares..</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de utiles escolares</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>Cantidad de mochilas,Cantidad de libros,Cantidad de utiles</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7456</t>
+        </is>
+      </c>
+      <c r="Z21" s="0">
+        <v>150</v>
+      </c>
+      <c r="AA21" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>poa</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de apoyos escolares..</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de utiles escolares</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>Cantidad de utiles,Cantidad de mochilas,Cantidad de libros</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7456</t>
+        </is>
+      </c>
+      <c r="O22" s="0">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -89,6 +89,11 @@
           <t>Organismo</t>
         </is>
       </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -96,6 +101,11 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -103,6 +113,11 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -110,6 +125,11 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desempeño de las Funciones</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -117,6 +137,11 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>P - Planeación, formulación, implementación, seguimiento y evaluación de políticas públicas</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -124,6 +149,11 @@
           <t>Gasto de Orden</t>
         </is>
       </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -179,7 +209,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 01:31:15 pm</t>
+          <t>07-04-2022 08:17:32 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -465,12 +495,12 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -480,27 +510,27 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Entrega de apoyos escolares..</t>
+          <t>Actividad Karen POA</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>6003</t>
+          <t>6161</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Indicador de Apoyos escolares 2</t>
+          <t>Indicador K</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>12334</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -520,7 +550,7 @@
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
+          <t>Acta</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
@@ -530,487 +560,76 @@
       </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>12434</t>
-        </is>
-      </c>
-      <c r="O16" s="0">
-        <v>1000</v>
+          <t>medio</t>
+        </is>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>11003</t>
+        </is>
       </c>
       <c r="AA16" s="0">
-        <v>1000</v>
+        <v>11003</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Entrega de apoyos escolares..</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>6003</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Indicador de Apoyos escolares 2</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>12334</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>B,A</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
-        </is>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>12434</t>
-        </is>
-      </c>
-      <c r="O17" s="0">
-        <v>1000</v>
+          <t>Proyecto</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AA17" s="0">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de apoyos escolares..</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>6001</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de utiles escolares</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>Cantidad de libros,Cantidad de utiles,Cantidad de mochilas</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7456</t>
-        </is>
-      </c>
-      <c r="O18" s="0">
-        <v>1500</v>
-      </c>
-      <c r="AA18" s="0">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de apoyos escolares..</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>6001</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de utiles escolares</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>Cantidad de libros,Cantidad de utiles,Cantidad de mochilas</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7456</t>
-        </is>
-      </c>
-      <c r="Y19" s="0">
-        <v>900</v>
-      </c>
-      <c r="AA19" s="0">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de apoyos escolares..</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>6001</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de utiles escolares</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>Cantidad de mochilas,Cantidad de libros,Cantidad de utiles</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7456</t>
-        </is>
-      </c>
-      <c r="T20" s="0">
-        <v>1200</v>
-      </c>
-      <c r="AA20" s="0">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de apoyos escolares..</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>6001</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de utiles escolares</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>Cantidad de mochilas,Cantidad de libros,Cantidad de utiles</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7456</t>
-        </is>
-      </c>
-      <c r="Z21" s="0">
-        <v>150</v>
-      </c>
-      <c r="AA21" s="0">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de apoyos escolares..</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>6001</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>Entrega de utiles escolares</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>Cantidad de utiles,Cantidad de mochilas,Cantidad de libros</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7456</t>
-        </is>
-      </c>
-      <c r="O22" s="0">
-        <v>6</v>
-      </c>
-      <c r="AA22" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -25,11 +25,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <i/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="20"/>
@@ -66,13 +61,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -91,7 +83,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
     </row>
@@ -101,11 +93,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Energía</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -113,11 +100,6 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -125,11 +107,6 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Desempeño de las Funciones</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -137,11 +114,6 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>P - Planeación, formulación, implementación, seguimiento y evaluación de políticas públicas</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -149,11 +121,6 @@
           <t>Gasto de Orden</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -161,10 +128,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Economía Dinámica y Prosperidad Familiar</t>
         </is>
       </c>
     </row>
@@ -176,7 +142,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Planeación y Participación Ciudadana</t>
+          <t>Secretaría de Desarrollo Agropecuario</t>
         </is>
       </c>
     </row>
@@ -209,10 +175,10 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 08:17:32 pm</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
+          <t>07-05-2022 03:32:18 am</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Reporte Combinado</t>
         </is>
@@ -500,37 +466,37 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Eficacia</t>
+          <t>Economia</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>6161</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Indicador K</t>
+          <t>Monto de ingresos aeronáuticos </t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>456</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -550,7 +516,7 @@
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Acta</t>
+          <t>Pesos</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
@@ -560,27 +526,42 @@
       </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>medio</t>
-        </is>
-      </c>
-      <c r="O16" s="0" t="inlineStr">
-        <is>
-          <t>11003</t>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t>22790412</t>
+        </is>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>20114832</t>
+        </is>
+      </c>
+      <c r="R16" s="0" t="inlineStr">
+        <is>
+          <t>27433358</t>
+        </is>
+      </c>
+      <c r="S16" s="0" t="inlineStr">
+        <is>
+          <t>24500227</t>
         </is>
       </c>
       <c r="AA16" s="0">
-        <v>11003</v>
+        <v>94838829</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -588,47 +569,377 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Monto de ingresos aeronáuticos </t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>B,A</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Pesos</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>26061165</t>
+        </is>
+      </c>
+      <c r="AA17" s="0">
+        <v>26061165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Tasa</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>A/B</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="AA18" s="0">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Tasa</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>B,A</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>A/B</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Incremento de pasajeros vs 2021</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Persona</t>
+        </is>
+      </c>
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>72953</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>67773</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>90805</t>
+        </is>
+      </c>
+      <c r="R20" s="0" t="inlineStr">
+        <is>
+          <t>92620</t>
+        </is>
+      </c>
+      <c r="AA20" s="0">
+        <v>324151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>5368</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Instalación de radar</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
           <t>Trimestral</t>
         </is>
       </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="O17" s="0" t="inlineStr">
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Radar</t>
+        </is>
+      </c>
+      <c r="O21" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P17" s="0" t="inlineStr">
+      <c r="P21" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q17" s="0" t="inlineStr">
+      <c r="Q21" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA17" s="0">
+      <c r="R21" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA21" s="0">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -25,6 +25,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="20"/>
@@ -61,10 +66,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -83,7 +91,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
     </row>
@@ -128,9 +136,10 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Economía Dinámica y Prosperidad Familiar</t>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
         </is>
       </c>
     </row>
@@ -142,7 +151,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>Enfocar las acciones del Gobierno de manera correcta y transparente a través de la escucha ciudadana, el uso adecuado de los recursos, la creación de nuevas políticas públicas y de herramientas para acercar los servicios a la población, con el fin de asegurar la gobernanza y la gobernabilidad del estado.</t>
         </is>
       </c>
     </row>
@@ -175,10 +184,10 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-05-2022 03:32:18 am</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+          <t>07-05-2022 09:10:05 am</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>Reporte Combinado</t>
         </is>
@@ -461,42 +470,32 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>6.2 Fomentar finanzas públicas sanas</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Programa de mejora de ingresos aeronáuticos</t>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5612</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Monto de ingresos aeronáuticos </t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
+          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -504,443 +503,28 @@
           <t>Mensual</t>
         </is>
       </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Pesos</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
-        </is>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
+          <t>Plan</t>
+        </is>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="P16" s="0" t="inlineStr">
         <is>
-          <t>22790412</t>
+          <t>35</t>
         </is>
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>20114832</t>
-        </is>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>27433358</t>
-        </is>
-      </c>
-      <c r="S16" s="0" t="inlineStr">
-        <is>
-          <t>24500227</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA16" s="0">
-        <v>94838829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>6.2 Fomentar finanzas públicas sanas</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>Programa de mejora de ingresos aeronáuticos</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>5363</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>Monto de ingresos aeronáuticos </t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>B,A</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Pesos</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
-        </is>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="O17" s="0" t="inlineStr">
-        <is>
-          <t>26061165</t>
-        </is>
-      </c>
-      <c r="AA17" s="0">
-        <v>26061165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>5366</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>Tasa</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>A/B</t>
-        </is>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O18" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="AA18" s="0">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>5366</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>Tasa</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>B,A</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>A/B</t>
-        </is>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="Q19" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA19" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>5366</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>Incremento de pasajeros vs 2021</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Persona</t>
-        </is>
-      </c>
-      <c r="O20" s="0" t="inlineStr">
-        <is>
-          <t>72953</t>
-        </is>
-      </c>
-      <c r="P20" s="0" t="inlineStr">
-        <is>
-          <t>67773</t>
-        </is>
-      </c>
-      <c r="Q20" s="0" t="inlineStr">
-        <is>
-          <t>90805</t>
-        </is>
-      </c>
-      <c r="R20" s="0" t="inlineStr">
-        <is>
-          <t>92620</t>
-        </is>
-      </c>
-      <c r="AA20" s="0">
-        <v>324151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>5368</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>Instalación de radar</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>Trimestral</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>Radar</t>
-        </is>
-      </c>
-      <c r="O21" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P21" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q21" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S21" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA21" s="0">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -89,11 +89,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
-        </is>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -151,7 +146,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Enfocar las acciones del Gobierno de manera correcta y transparente a través de la escucha ciudadana, el uso adecuado de los recursos, la creación de nuevas políticas públicas y de herramientas para acercar los servicios a la población, con el fin de asegurar la gobernanza y la gobernabilidad del estado.</t>
+          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
         </is>
       </c>
     </row>
@@ -184,7 +179,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-05-2022 09:10:05 am</t>
+          <t>07-07-2022 12:22:48 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -525,6 +520,96 @@
       </c>
       <c r="AA16" s="0">
         <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>5512</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Proyecto</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>wefewf</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA17" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -179,7 +179,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-07-2022 12:22:48 pm</t>
+          <t>07-08-2022 12:02:25 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="AA15" s="1" t="inlineStr">
         <is>
-          <t>Total acomulado</t>
+          <t>Total acumulado</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="O17" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>133</t>
         </is>
       </c>
       <c r="P17" s="0" t="inlineStr">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="AA17" s="0">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -27,12 +27,12 @@
       <i/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -69,10 +69,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -131,10 +131,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Salud y Vida Digna</t>
         </is>
       </c>
     </row>
@@ -146,7 +145,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
+          <t>Generar condiciones que promuevan la movilidad social, el desarrollo humano trascendental y el respeto a la dignidad de las personas y grupos que integran la sociedad queretana.</t>
         </is>
       </c>
     </row>
@@ -179,10 +178,10 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-08-2022 12:02:25 pm</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
+          <t>07-09-2022 09:59:50 pm</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Reporte Combinado</t>
         </is>
@@ -465,77 +464,87 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>1.1.1.3 Proveer atención integral a la salud de los y las pacientes</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Eficiencia</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Incrementar la cobertura de atención médica </t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>5497</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Porcentaje de población sin seguridad social residente en Querétaro, que recibe consulta médica de primera vez en el año en primer y segundo nivel de atención con respecto al total de población sin seguridad social residente en Querétaro</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>Número de población sin seguridad social residente en Querétaro, que recibe consulta médica de primera vez en el año en primer y segundo nivel de atención,Total de población sin seguridad social residente en Querétaro,100</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Plan</t>
-        </is>
-      </c>
-      <c r="O16" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" s="0" t="inlineStr">
-        <is>
-          <t>35</t>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>Área de Estadística de la Dirección de Planeación/Ubicación electrónica</t>
         </is>
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="AA16" s="0">
-        <v>70</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>gestion</t>
+          <t>1.1.1.6 Regularizar los esquemas de vacunación en la población.</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -545,71 +554,1612 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Prevención y atención  de enfermedades prevenibles en menores de 5 años </t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Porcentaje de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro que cuentan con el esquema básico de vacunación completo con respecto al total de niños y niñas de un año de edad sin seguridad social residentes en Querétaro</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>Total de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro,Número de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro que cuentan con el esquema básico de vacunación completo ,100</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>Dosis Aplicada (RDA)/Emite: Área de Estadística de la Dirección de Planeación/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="AA17" s="0">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t> Detección, diagnóstico, prevención, tratamiento y control de pacientes con cáncer de la mujer</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>5502</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de mujeres de 35 a 64 años de edad sin seguridad social a quién se realizó detección de Virus del Papiloma Humano (VPH) con respecto al total de mujeres de 35 a 64 años de edad sin seguridad social</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>Número de mujeres de 35 a 64 años de edad sin seguridad social a quién se realizó detección de Virus del Papiloma Humano (VPH) ,100,Total de mujeres de 35 a 64 años de edad sin seguridad social</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AA18" s="0">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Implementar esquemas de prevención y detección oportuna de enfermedades graves y crónicas en la población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>5496</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Porcentaje de población de 20 años y más sin seguridad social a quién se realizó detección de Diabetes Mellitus con respecto al total de la población de 20 años y más sin seguridad social
+</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>100,Total de la población de 20 años y más sin seguridad social,Número de población de 20 años y más sin seguridad social a quién se realizó detección de Diabetes Mellitus</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>Detecciones de Diabetes Mellitus/ Emite: Área de Estadística de la Dirección de Planeación/ Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="AA19" s="0">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t> Detección, diagnóstico, prevención, tratamiento y control de pacientes con cáncer de la mujer</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>5502</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de mujeres de 40 a 69 años de edad sin seguridad social a quién se realizó estudio de mastografía con respecto al total de mujeres de 40 a 69 años de edad sin seguridad social                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="AA20" s="0">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Implementar esquemas de prevención y detección oportuna de enfermedades graves y crónicas en la población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>5496</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de detecciones de Virus de Inmunodeficiencia Humana (VIH) en población clave con factores de riesgo de 15 a 49 años sin seguridad social con respecto al total de la población clave con factores de riesgo de 15 a 49 años sin seguridad social</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q21" s="0" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="AA21" s="0">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Implementar esquemas de prevención y detección oportuna de enfermedades graves y crónicas en la población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>5496</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de pacientes sin seguridad social con Hipertensión Arterial Sistémica que logran la meta del tratamiento (controlados) con respecto al total de pacientes sin seguridad social con Hipertensión Arterial Sistémica                         </t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q22" s="0" t="inlineStr">
+        <is>
+          <t>65.5</t>
+        </is>
+      </c>
+      <c r="AA22" s="0">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de atenciones de salud mental otorgadas a la población sin seguridad social con respecto al total de personal de salud mental</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>Número de atenciones de salud mental otorgadas a la población sin seguridad social,Total de personal de salud mental</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>A/B</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>Sistema de Información en Salud (SIS)</t>
+        </is>
+      </c>
+      <c r="Q23" s="0" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AA23" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de nacidos vivos por cesárea de mujeres sin seguridad social en hospitales de segundo nivel de atención</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q24" s="0" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="AA24" s="0">
+        <v>36.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de ocupación hospitalaria en segundo nivel de atención</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q25" s="0" t="inlineStr">
+        <is>
+          <t>74.7</t>
+        </is>
+      </c>
+      <c r="AA25" s="0">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de estudios de laboratorio por paciente en segundo nivel de atención médica de población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q26" s="0" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="AA26" s="0">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Promedio diario de intervenciones quirúrgicas por quirófano</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q27" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AA27" s="0">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.3 Implementar y difundir estrategias para la disminución de los riesgos para la salud.</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Visitas y verificaciones sanitarias a establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>5503</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de establecimientos de servicio de alimentos con condiciones sanitarias seguras con respecto al total de establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>Número de establecimientos de servicio de alimentos con condiciones sanitarias seguras,100,Total de establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>Verificaciones Sanitarias del período/Emite: Subdirección de Información y Manejo de Riesgos de la Dirección de Protección Contra Riesgos Sanitarios/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="Q28" s="0" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
+      </c>
+      <c r="AA28" s="0">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>1.2.1.1 Generar estudios e investigaciones sobre el desarrollo social en el estado.</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>ejem</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>6416</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>ejem</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>Ejecutados,Planeados,100</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>Reporte</t>
+        </is>
+      </c>
+      <c r="O29" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AA29" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t> Sumatoria de cursos de prevención de adicciones realizados</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>Trimestral</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
         <is>
           <t>Sumatoria</t>
         </is>
       </c>
-      <c r="K17" s="0" t="inlineStr">
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>Número de  cursos de prevención de adicciones realizados</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>Curso</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="U30" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA30" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>Número de consultas de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>Consulta</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>wefewf</t>
-        </is>
-      </c>
-      <c r="O17" s="0" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="P17" s="0" t="inlineStr">
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="U31" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AA31" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía chat otorgadas</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q17" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA17" s="0">
-        <v>133</v>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>Número de consultas psicologicas vía chat otorgadas</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>Consulta</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="T32" s="0" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="AA32" s="0">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de prevención de accidentes espacios recidientes en linea realizados</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>Conferencia</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U33" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA33" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>Conferencia</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U34" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA34" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>Conferencia</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA35" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>Consulta</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U36" s="0" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="AA36" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía presencial otorgadas</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>Consulta</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U37" s="0" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="AA37" s="0">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía telefónica otorgadas</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>Consulta</t>
+        </is>
+      </c>
+      <c r="M38" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="T38" s="0" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="AA38" s="0">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de consumo responsable de alcohol realizados</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>Curso</t>
+        </is>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U39" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA39" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de prevención del suicidio realizados</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>Curso</t>
+        </is>
+      </c>
+      <c r="M40" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U40" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA40" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>Curso</t>
+        </is>
+      </c>
+      <c r="M41" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U41" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA41" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>Curso</t>
+        </is>
+      </c>
+      <c r="M42" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="U42" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA42" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de psicoterapias por medio de video conferencias otorgadas</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>Terapia</t>
+        </is>
+      </c>
+      <c r="M43" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="T43" s="0" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="AA43" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de psicoterapias presenciales otorgadas</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L44" s="0" t="inlineStr">
+        <is>
+          <t>Terapia</t>
+        </is>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="T44" s="0" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="AA44" s="0">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -178,7 +178,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-09-2022 09:59:50 pm</t>
+          <t>07-10-2022 10:29:18 am</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -467,9 +467,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.3 Proveer atención integral a la salud de los y las pacientes</t>
+        </is>
+      </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.3 Proveer atención integral a la salud de los y las pacientes</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -542,9 +547,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.6 Regularizar los esquemas de vacunación en la población.</t>
+        </is>
+      </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.6 Regularizar los esquemas de vacunación en la población.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -617,9 +627,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -692,9 +707,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -768,9 +788,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -818,9 +843,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -868,9 +898,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -918,9 +953,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -993,9 +1033,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -1043,9 +1088,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -1093,9 +1143,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -1143,9 +1198,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
@@ -1193,9 +1253,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.3 Implementar y difundir estrategias para la disminución de los riesgos para la salud.</t>
+        </is>
+      </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.3 Implementar y difundir estrategias para la disminución de los riesgos para la salud.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -1268,9 +1333,14 @@
           <t>Actividad</t>
         </is>
       </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>1.2.1.1 Generar estudios e investigaciones sobre el desarrollo social en el estado.</t>
+        </is>
+      </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>1.2.1.1 Generar estudios e investigaciones sobre el desarrollo social en el estado.</t>
+          <t>gestion</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -1343,9 +1413,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -1418,9 +1493,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -1493,9 +1573,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
@@ -1568,9 +1653,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1618,9 +1708,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1668,9 +1763,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1718,9 +1818,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1768,9 +1873,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1818,9 +1928,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1868,9 +1983,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1918,9 +2038,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1968,9 +2093,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -2018,9 +2148,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -2068,9 +2203,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
@@ -2118,9 +2258,14 @@
           <t>Componente</t>
         </is>
       </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 01:22:49 am</t>
+          <t>07-11-2022 09:15:55 am</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="O16" s="4">
-        <v>0</v>
+        <v>26348</v>
       </c>
       <c r="P16" s="4">
-        <v>0</v>
+        <v>26129</v>
       </c>
       <c r="Q16" s="4">
-        <v>0</v>
+        <v>196355</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>25188</v>
       </c>
       <c r="S16" s="4">
-        <v>111</v>
+        <v>29325</v>
       </c>
       <c r="T16" s="4">
         <v>90</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <v>201</v>
+        <v>303435</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -624,17 +624,17 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización Digital </t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="T17" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U17" s="5">
         <v>0</v>
@@ -735,17 +735,17 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Procuraduría digital</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="T18" s="5">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U18" s="5">
         <v>0</v>
@@ -846,17 +846,17 @@
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Procuraduría digital</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Indicador 2 pagina web</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5">
         <v>0</v>
@@ -937,12 +937,12 @@
     <row r="20" spans="1:27">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>3 Economía Dinámica y Prosperidad Familiar </t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -952,22 +952,22 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Calidad</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Sumatoria de Consultas a la página web de Catastro</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
@@ -987,17 +987,17 @@
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
+          <t>Proyecto</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N20" s="0" t="inlineStr">
@@ -1005,55 +1005,55 @@
           <t>123</t>
         </is>
       </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="4">
+      <c r="O20" s="5">
+        <v>26348</v>
+      </c>
+      <c r="P20" s="5">
+        <v>26129</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>196355</v>
+      </c>
+      <c r="R20" s="5">
+        <v>25188</v>
+      </c>
+      <c r="S20" s="5">
+        <v>29214</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>TEST ESZ 1</t>
+          <t>Actividad ESZ Test</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>6424</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR ESZ 1</t>
+          <t>Indicador ESZ</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
@@ -1098,22 +1098,22 @@
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Acta de cierre</t>
+          <t>Acciones</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A+B</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O21" s="4">
@@ -1159,355 +1159,466 @@
     <row r="22" spans="1:27">
       <c r="A22" s="0" t="inlineStr">
         <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>TEST ESZ 1</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>6424</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR ESZ 1</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Acta de cierre</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C22" s="0" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="E23" s="0" t="inlineStr">
         <is>
           <t>Actividad padre 2 SF</t>
         </is>
       </c>
-      <c r="F22" s="0" t="inlineStr">
+      <c r="F23" s="0" t="inlineStr">
         <is>
           <t>6442</t>
         </is>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <v>100</v>
       </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
         <v>500</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U23" s="4">
         <v>1000</v>
       </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
         <v>2</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA23" s="4">
         <v>1602</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="0" t="inlineStr">
+    <row r="24" spans="1:27">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>Actividad hija SF 1</t>
         </is>
       </c>
-      <c r="F23" s="0" t="inlineStr">
+      <c r="F24" s="0" t="inlineStr">
         <is>
           <t>6440</t>
         </is>
       </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="G24" s="0" t="inlineStr">
         <is>
           <t>Indicador hija 1 SF</t>
         </is>
       </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5">
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
         <v>500</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U24" s="5">
         <v>1000</v>
       </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C24" s="0" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="E25" s="0" t="inlineStr">
         <is>
           <t>Actividad hija SF 1</t>
         </is>
       </c>
-      <c r="F24" s="0" t="inlineStr">
+      <c r="F25" s="0" t="inlineStr">
         <is>
           <t>6440</t>
         </is>
       </c>
-      <c r="G24" s="0" t="inlineStr">
+      <c r="G25" s="0" t="inlineStr">
         <is>
           <t>Indicador hija 2 SF</t>
         </is>
       </c>
-      <c r="O24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C25" s="0" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>Actividad hija SF 1</t>
         </is>
       </c>
-      <c r="F25" s="0" t="inlineStr">
+      <c r="F26" s="0" t="inlineStr">
         <is>
           <t>6440</t>
         </is>
       </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>Indicador hija 3 SF</t>
         </is>
       </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C26" s="0" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="E27" s="0" t="inlineStr">
         <is>
           <t>Actividad hija SF 2</t>
         </is>
       </c>
-      <c r="F26" s="0" t="inlineStr">
+      <c r="F27" s="0" t="inlineStr">
         <is>
           <t>6441</t>
         </is>
       </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>Indicador hija SF 2</t>
         </is>
       </c>
-      <c r="O26" s="5">
+      <c r="O27" s="5">
         <v>100</v>
       </c>
-      <c r="P26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
         <v>2</v>
       </c>
-      <c r="AA26" s="0">
+      <c r="AA27" s="0">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 09:15:55 am</t>
+          <t>07-11-2022 10:23:25 am</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>26129</v>
       </c>
       <c r="Q16" s="4">
-        <v>196355</v>
+        <v>30467</v>
       </c>
       <c r="R16" s="4">
         <v>25188</v>
       </c>
       <c r="S16" s="4">
-        <v>29325</v>
+        <v>29214</v>
       </c>
       <c r="T16" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U16" s="4">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <v>303435</v>
+        <v>137346</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -624,17 +624,17 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Sumatoria de Consultas a la página web de Catastro</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="O17" s="5">
-        <v>0</v>
+        <v>26348</v>
       </c>
       <c r="P17" s="5">
-        <v>0</v>
+        <v>26129</v>
       </c>
       <c r="Q17" s="5">
-        <v>0</v>
+        <v>30467</v>
       </c>
       <c r="R17" s="5">
-        <v>0</v>
+        <v>25188</v>
       </c>
       <c r="S17" s="5">
-        <v>91</v>
+        <v>29214</v>
       </c>
       <c r="T17" s="5">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
         <v>0</v>
@@ -735,17 +735,17 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Procuraduría digital</t>
+          <t>Fiscalización digital</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T18" s="5">
         <v>0</v>
@@ -826,12 +826,12 @@
     <row r="19" spans="1:27">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -841,22 +841,22 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Economia</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Actividad ESZ Test</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2 pagina web</t>
+          <t>Indicador ESZ</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Acciones</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A+B</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
@@ -894,43 +894,43 @@
           <t>123</t>
         </is>
       </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="0">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -952,32 +952,32 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Economia</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>TEST ESZ 1</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>6424</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro</t>
+          <t>INDICADOR ESZ 1</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>233</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Acta de cierre</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
@@ -1002,623 +1002,113 @@
       </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O20" s="5">
-        <v>26348</v>
-      </c>
-      <c r="P20" s="5">
-        <v>26129</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>196355</v>
-      </c>
-      <c r="R20" s="5">
-        <v>25188</v>
-      </c>
-      <c r="S20" s="5">
-        <v>29214</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="0">
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>Actividad ESZ Test</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>6420</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>Indicador ESZ</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
-        </is>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>TEST ESZ 1</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>6424</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR ESZ 1</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>Acta de cierre</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>Actividad padre 2 SF</t>
         </is>
       </c>
-      <c r="F23" s="0" t="inlineStr">
+      <c r="F21" s="0" t="inlineStr">
         <is>
           <t>6442</t>
         </is>
       </c>
-      <c r="O23" s="4">
-        <v>100</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>500</v>
-      </c>
-      <c r="U23" s="4">
-        <v>1000</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>6440</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 1 SF</t>
-        </is>
-      </c>
-      <c r="O24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <v>500</v>
-      </c>
-      <c r="U24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>6440</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 2 SF</t>
-        </is>
-      </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>6440</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 3 SF</t>
-        </is>
-      </c>
-      <c r="O26" s="5">
-        <v>0</v>
-      </c>
-      <c r="P26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 2</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>6441</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija SF 2</t>
-        </is>
-      </c>
-      <c r="O27" s="5">
-        <v>100</v>
-      </c>
-      <c r="P27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <v>0</v>
-      </c>
-      <c r="T27" s="5">
-        <v>0</v>
-      </c>
-      <c r="U27" s="5">
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="0">
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 10:23:25 am</t>
+          <t>07-11-2022 12:38:39 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Fiscalización digital</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro</t>
+          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -672,41 +672,20 @@
           <t>123</t>
         </is>
       </c>
-      <c r="O17" s="5">
-        <v>26348</v>
-      </c>
-      <c r="P17" s="5">
-        <v>26129</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>30467</v>
-      </c>
-      <c r="R17" s="5">
-        <v>25188</v>
-      </c>
-      <c r="S17" s="5">
-        <v>29214</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>0</v>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -735,17 +714,17 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización digital</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados</t>
+          <t>Indicador 2 pagina web</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -782,42 +761,6 @@
         <is>
           <t>123</t>
         </is>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0</v>
       </c>
       <c r="AA18" s="0">
         <v>0</v>
@@ -826,12 +769,12 @@
     <row r="19" spans="1:27">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>3 Economía Dinámica y Prosperidad Familiar </t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -841,22 +784,22 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Calidad</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Indicador 3 </t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -866,7 +809,7 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
@@ -876,17 +819,17 @@
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
+          <t>Proyecto</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
@@ -894,43 +837,7 @@
           <t>123</t>
         </is>
       </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="0">
         <v>0</v>
       </c>
     </row>
@@ -942,7 +849,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>3 Economía Dinámica y Prosperidad Familiar </t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -952,32 +859,32 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Calidad</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>TEST ESZ 1</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>6424</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR ESZ 1</t>
+          <t>Sumatoria de Consultas a la página web de Catastro</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
@@ -992,7 +899,7 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Acta de cierre</t>
+          <t>Proyecto</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
@@ -1002,113 +909,324 @@
       </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="4">
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>26348</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>26129</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="R20" s="5" t="inlineStr">
+        <is>
+          <t>25188</t>
+        </is>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>29214</t>
+        </is>
+      </c>
+      <c r="AA20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="0" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>6420</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Indicador ESZ</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>TEST ESZ 1</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>6424</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR ESZ 1</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Acta de cierre</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="C21" s="0" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="E23" s="0" t="inlineStr">
         <is>
           <t>Actividad padre 2 SF</t>
         </is>
       </c>
-      <c r="F21" s="0" t="inlineStr">
+      <c r="F23" s="0" t="inlineStr">
         <is>
           <t>6442</t>
         </is>
       </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 12:38:39 pm</t>
+          <t>07-11-2022 02:03:24 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="O16" s="4">
-        <v>26348</v>
+        <v>57696</v>
       </c>
       <c r="P16" s="4">
-        <v>26129</v>
+        <v>52258</v>
       </c>
       <c r="Q16" s="4">
-        <v>30467</v>
+        <v>60934</v>
       </c>
       <c r="R16" s="4">
-        <v>25188</v>
+        <v>50376</v>
       </c>
       <c r="S16" s="4">
-        <v>29214</v>
+        <v>58428</v>
       </c>
       <c r="T16" s="4">
-        <v>0</v>
+        <v>30897</v>
       </c>
       <c r="U16" s="4">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="4">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="AA16" s="4">
-        <v>137346</v>
+        <v>315889</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -624,17 +624,17 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización digital</t>
+          <t>Catastro web</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados</t>
+          <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -674,17 +674,32 @@
       </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26348</t>
         </is>
       </c>
       <c r="P17" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26129</t>
         </is>
       </c>
       <c r="Q17" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>25188</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>29214</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>30897</t>
         </is>
       </c>
       <c r="AA17" s="0">
@@ -714,17 +729,17 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Fiscalización digital</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2 pagina web</t>
+          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -760,6 +775,21 @@
       <c r="N18" s="0" t="inlineStr">
         <is>
           <t>123</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" s="0">
@@ -799,7 +829,7 @@
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Indicador 3 </t>
+          <t>Sumatoria de Consultas a la página web de Catastro</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -835,6 +865,36 @@
       <c r="N19" s="0" t="inlineStr">
         <is>
           <t>123</t>
+        </is>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>26348</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>26129</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>30467</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>25188</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>29214</t>
+        </is>
+      </c>
+      <c r="Z19" s="5" t="inlineStr">
+        <is>
+          <t>5300</t>
         </is>
       </c>
       <c r="AA19" s="0">
@@ -874,7 +934,7 @@
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -914,27 +974,7 @@
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
-          <t>26348</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>26129</t>
-        </is>
-      </c>
-      <c r="Q20" s="5" t="inlineStr">
-        <is>
-          <t>30467</t>
-        </is>
-      </c>
-      <c r="R20" s="5" t="inlineStr">
-        <is>
-          <t>25188</t>
-        </is>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>29214</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="AA20" s="0">

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -42,11 +42,6 @@
       <name val="Calibri"/>
       <b/>
       <i/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -83,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
@@ -91,9 +86,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -112,11 +104,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -207,7 +194,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 09:15:55 am</t>
+          <t>07-11-2022 03:21:26 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -493,12 +480,12 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -508,27 +495,27 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital ACT padre</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -538,46 +525,46 @@
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>100,Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles,Total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Bitácora digital de avances del proyecto</t>
         </is>
       </c>
       <c r="O16" s="4">
-        <v>26348</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
-        <v>26129</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <v>196355</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>25188</v>
+        <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>29325</v>
+        <v>0</v>
       </c>
       <c r="T16" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U16" s="4">
         <v>0</v>
@@ -598,18 +585,18 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <v>303435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -619,27 +606,27 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -649,78 +636,78 @@
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>100,Total de etapas propuestas para el portal web para el arrendamiento de inmuebles,Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N17" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <v>91</v>
-      </c>
-      <c r="T17" s="5">
-        <v>90</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="0">
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -730,27 +717,27 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Procuraduría digital</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
@@ -760,78 +747,78 @@
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles,100,Total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M18" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N18" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>20</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="0">
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -841,27 +828,27 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2 pagina web</t>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
@@ -871,78 +858,78 @@
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles,Total de etapas propuestas para el portal web para el arrendamiento de inmuebles,100</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="0">
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -952,27 +939,27 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro</t>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
@@ -982,78 +969,78 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Total de etapas propuestas para el portal web para el arrendamiento de inmuebles,100,Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Proyecto</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O20" s="5">
-        <v>26348</v>
-      </c>
-      <c r="P20" s="5">
-        <v>26129</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>196355</v>
-      </c>
-      <c r="R20" s="5">
-        <v>25188</v>
-      </c>
-      <c r="S20" s="5">
-        <v>29214</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="0">
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1063,57 +1050,57 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>Total de etapas propuestas para el portal web para el arrendamiento de inmuebles,Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles,100</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Bitácora digital de avances del proyecto</t>
         </is>
       </c>
       <c r="O21" s="4">
@@ -1159,12 +1146,12 @@
     <row r="22" spans="1:27">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1174,57 +1161,57 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>TEST ESZ 1</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>6424</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR ESZ 1</t>
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
         </is>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria</t>
+          <t>Porcentaje</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>100,Número de etapas concluidas de la implementación de la plataforma digital,Total de etapas para la implementación de la plataforma digital</t>
         </is>
       </c>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>Acta de cierre</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M22" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>(A/B)*C</t>
         </is>
       </c>
       <c r="N22" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Bitácora digital de avances del proyecto</t>
         </is>
       </c>
       <c r="O22" s="4">
@@ -1273,10 +1260,9 @@
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1284,18 +1270,63 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Actividad padre 2 SF</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>6442</t>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>100,Total de etapas para la implementación de la plataforma digital,Número de etapas concluidas de la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>Bitácora digital de avances del proyecto</t>
         </is>
       </c>
       <c r="O23" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="4">
         <v>0</v>
@@ -1310,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U23" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V23" s="4">
         <v>0</v>
@@ -1328,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="Z23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="4">
-        <v>1602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -1340,10 +1371,9 @@
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1351,58 +1381,98 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija 1 SF</t>
-        </is>
-      </c>
-      <c r="O24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <v>500</v>
-      </c>
-      <c r="U24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="0">
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>Número de etapas concluidas de la implementación de la plataforma digital,100,Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1412,10 +1482,9 @@
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1423,58 +1492,98 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija 2 SF</t>
-        </is>
-      </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="0">
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>Número de etapas concluidas de la implementación de la plataforma digital,Total de etapas para la implementación de la plataforma digital,100</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1484,10 +1593,9 @@
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1495,58 +1603,98 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija 3 SF</t>
-        </is>
-      </c>
-      <c r="O26" s="5">
-        <v>0</v>
-      </c>
-      <c r="P26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="0">
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>Total de etapas para la implementación de la plataforma digital,100,Número de etapas concluidas de la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1556,10 +1704,9 @@
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1567,58 +1714,1163 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 2</t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>6441</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija SF 2</t>
-        </is>
-      </c>
-      <c r="O27" s="5">
-        <v>100</v>
-      </c>
-      <c r="P27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <v>0</v>
-      </c>
-      <c r="T27" s="5">
-        <v>0</v>
-      </c>
-      <c r="U27" s="5">
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="0">
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>Total de etapas para la implementación de la plataforma digital,Número de etapas concluidas de la implementación de la plataforma digital,100</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>Bitácora digital de avances del proyecto</t>
+        </is>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Supervisar a Órganos Internos de Control.</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de supervisiones a los Órganos Internos de Control programadas en el periodo,Número de supervisiones a los Órganos Internos de Control realizadas en el periodo</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>Supervisión</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>Minutas de trabajo de las Supervisiones realizadas a los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Supervisar a Órganos Internos de Control.</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de supervisiones a los Órganos Internos de Control realizadas en el periodo,Número de supervisiones a los Órganos Internos de Control programadas en el periodo</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Supervisión</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>Minutas de trabajo de las Supervisiones realizadas a los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Supervisar a Órganos Internos de Control.</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>Número de supervisiones a los Órganos Internos de Control realizadas en el periodo,100,Número de supervisiones a los Órganos Internos de Control programadas en el periodo</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>Supervisión</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>Minutas de trabajo de las Supervisiones realizadas a los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>100,Total de servidores públicos obligados,100,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Total de servidores públicos obligados,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,100,Total de servidores públicos obligados,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
+        </is>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,100,Total de servidores públicos obligados,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,100,Total de servidores públicos obligados,100,Total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
+        </is>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,100,Total de servidores públicos obligados,Total de servidores públicos obligados,100,100,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
+        </is>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>Total de servidores públicos obligados,100,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Total de servidores públicos obligados,100,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,100,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
+        </is>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>6420</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Indicador ESZ</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>TEST ESZ 1</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>6424</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR ESZ 1</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>Acta de cierre</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Padre 2</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>6435</t>
+        </is>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="4">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:17:00 am</t>
+          <t>07-12-2022 08:44:26 am</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -493,12 +493,12 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -506,24 +506,44 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Balance Presupuestario</t>
+          <t>Arranque del Sistema</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5522</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Calificación crediticia de la Entidad</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>A,A</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
@@ -534,6 +554,11 @@
       <c r="M16" s="0" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
       <c r="O16" s="4">
@@ -584,7 +609,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -592,14 +617,19 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
@@ -607,14 +637,29 @@
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>A,A</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M17" s="0" t="inlineStr">
@@ -622,44 +667,28 @@
           <t>A</t>
         </is>
       </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>1123</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>1123</v>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA17" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -670,7 +699,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -678,29 +707,49 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Arranque del Sistema</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>A,A</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M18" s="0" t="inlineStr">
@@ -708,6 +757,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
       <c r="O18" s="5" t="inlineStr">
         <is>
           <t>0</t>
@@ -723,23 +777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" s="5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
       <c r="AA18" s="0">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -750,7 +789,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -758,6 +797,11 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
           <t>Arranque del Sistema</t>
@@ -773,14 +817,29 @@
           <t>Porcentaje test</t>
         </is>
       </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Acciones</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
@@ -788,13 +847,49 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AA19" s="0">
-        <v>123</v>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -805,7 +900,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -813,34 +908,59 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
+          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Acciones</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
         </is>
       </c>
       <c r="O20" s="5" t="inlineStr">
@@ -870,7 +990,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -878,34 +998,59 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Autoridad Certificadora</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Acciones</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
         </is>
       </c>
       <c r="O21" s="5" t="inlineStr">
@@ -930,111 +1075,283 @@
     <row r="22" spans="1:27">
       <c r="A22" s="0" t="inlineStr">
         <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Balance Presupuestario</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Recurso</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="C22" s="0" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>Economia</t>
         </is>
       </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>Actividad ESZ Test</t>
         </is>
       </c>
-      <c r="F22" s="0" t="inlineStr">
+      <c r="F24" s="0" t="inlineStr">
         <is>
           <t>6420</t>
         </is>
       </c>
-      <c r="G22" s="0" t="inlineStr">
+      <c r="G24" s="0" t="inlineStr">
         <is>
           <t>Indicador ESZ</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="I22" s="0" t="inlineStr">
+      <c r="I24" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="J22" s="0" t="inlineStr">
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>Sumatoria</t>
         </is>
       </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>B,A</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
         <is>
           <t>Acciones</t>
         </is>
       </c>
-      <c r="M22" s="0" t="inlineStr">
+      <c r="M24" s="0" t="inlineStr">
         <is>
           <t>A+B</t>
         </is>
       </c>
-      <c r="N22" s="0" t="inlineStr">
+      <c r="N24" s="0" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="4">
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -42,6 +42,11 @@
       <name val="Calibri"/>
       <b/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -78,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
@@ -86,6 +91,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -199,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 03:53:50 pm</t>
+          <t>07-12-2022 09:46:04 am</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -485,12 +493,12 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -505,27 +513,27 @@
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Arranque del Sistema</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
@@ -535,22 +543,22 @@
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>B,A</t>
+          <t>A,A</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="O16" s="4">
@@ -596,111 +604,779 @@
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>A,A</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>A,A</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Arranque del Sistema</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje test</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Balance Presupuestario</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Recurso</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>Economia</t>
         </is>
       </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>TEST ESZ 1</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>6424</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR ESZ 1</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>6420</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Indicador ESZ</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="J17" s="0" t="inlineStr">
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>Sumatoria</t>
         </is>
       </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Acta de cierre</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4">
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>B,A</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:44:26 am</t>
+          <t>07-12-2022 09:22:50 am</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
@@ -1174,6 +1174,11 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
           <t>Aprovechar los recursos propios</t>
@@ -1186,12 +1191,27 @@
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="L23" s="0" t="inlineStr">
@@ -1202,6 +1222,11 @@
       <c r="M23" s="0" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="O23" s="4">

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -42,11 +42,6 @@
       <name val="Calibri"/>
       <b/>
       <i/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -83,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
@@ -91,9 +86,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,7 +199,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 01:03:02 pm</t>
+          <t>07-12-2022 08:51:03 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -493,12 +485,12 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>5 Paz y Respeto a la Ley</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -506,54 +498,29 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Arranque del Sistema</t>
+          <t>Balance Presupuestario</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5517</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>135</t>
+          <t>5522</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>Trimestral | Mensual</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria | Sumatoria</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>A,A | A</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Avance | Acciones</t>
+          <t>Porcentaje de Avance</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>A | A</t>
-        </is>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>aa | aaa</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O16" s="4">
@@ -599,12 +566,12 @@
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -612,29 +579,54 @@
           <t>gestion</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Balance Presupuestario</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>5522</t>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Avance</t>
+          <t>Recurso</t>
         </is>
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="O17" s="4">
@@ -680,12 +672,12 @@
     <row r="18" spans="1:27">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -695,27 +687,27 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Economia</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Actividad ESZ Test</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>Diario</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
@@ -725,17 +717,17 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B,A</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Acciones</t>
         </is>
       </c>
       <c r="M18" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A+B</t>
         </is>
       </c>
       <c r="N18" s="0" t="inlineStr">
@@ -786,12 +778,12 @@
     <row r="19" spans="1:27">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -799,54 +791,14 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>6420</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>B,A</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
-        </is>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>6449</t>
         </is>
       </c>
       <c r="O19" s="4">
@@ -892,13 +844,12 @@
     <row r="20" spans="1:27">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -906,58 +857,18 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1</t>
+          <t>Actividad Prueba EJE</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>6445</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>Mensual | Ciclo escolar</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>Promedio | Promedio</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>A | B,A</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Acciones | Acreditación</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>A | A+B</t>
-        </is>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>A | a</t>
+          <t>6450</t>
         </is>
       </c>
       <c r="O20" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -972,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U20" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V20" s="4">
         <v>0</v>
@@ -993,19 +904,18 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1013,85 +923,65 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>ACTIVIDAD POA SF</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>6440</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 1 SF</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>Mensual | Ciclo escolar</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>Promedio | Promedio</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>A | B,A</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>Acciones | Acreditación</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>A | A+B</t>
-        </is>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>A | a</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AA21" s="0">
-        <v>1500</v>
+          <t>6451</t>
+        </is>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1099,68 +989,796 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 3</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>6453</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>6454</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Amparo</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>Calidad</t>
         </is>
       </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 2</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>6441</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija SF 2</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>Mensual | Ciclo escolar</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>Promedio | Promedio</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>A | B,A</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>Acciones | Acreditación</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>A | A+B</t>
-        </is>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>A | a</t>
-        </is>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AA22" s="0">
-        <v>100</v>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>Quinquenal</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Adulto</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>MEDIO PADRE</t>
+        </is>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>Otro | Bimestral</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>Promedio | Porcentaje</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>A,B | B,A</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Adulto | Acreditación</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>A+B | A+B</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>A | A</t>
+        </is>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Eficiencia</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>6459</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>B,A</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Eficiencia</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>6460</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>MEDIO HIJA</t>
+        </is>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -43,6 +43,11 @@
       <b/>
       <i/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -63,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC000"/>
+        <fgColor rgb="FFD9A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
@@ -86,6 +91,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -199,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:51:03 pm</t>
+          <t>07-12-2022 10:24:28 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -508,6 +516,11 @@
           <t>5522</t>
         </is>
       </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
           <t>Anual</t>
@@ -594,6 +607,11 @@
           <t>5529</t>
         </is>
       </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
           <t>456</t>
@@ -700,6 +718,11 @@
           <t>6420</t>
         </is>
       </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Indicador ESZ</t>
+        </is>
+      </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
           <t>123</t>
@@ -717,7 +740,7 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>B,A</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
@@ -1070,6 +1093,11 @@
           <t>6453</t>
         </is>
       </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE AGLOMERADO 4</t>
+        </is>
+      </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
           <t>1234</t>
@@ -1176,6 +1204,11 @@
           <t>6454</t>
         </is>
       </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
           <t>231</t>
@@ -1282,6 +1315,11 @@
           <t>6457</t>
         </is>
       </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5 2</t>
+        </is>
+      </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
           <t>3434</t>
@@ -1388,6 +1426,11 @@
           <t>6457</t>
         </is>
       </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5</t>
+        </is>
+      </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
           <t>1234</t>
@@ -1494,6 +1537,12 @@
           <t>6458</t>
         </is>
       </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
+ | INDICADOR AGLOMERADO HIJA 2</t>
+        </is>
+      </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
           <t>146</t>
@@ -1600,6 +1649,11 @@
           <t>6459</t>
         </is>
       </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE 6</t>
+        </is>
+      </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
           <t>23</t>
@@ -1706,6 +1760,11 @@
           <t>6460</t>
         </is>
       </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR HIJA 6</t>
+        </is>
+      </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
           <t>123</t>
@@ -1779,6 +1838,282 @@
       </c>
       <c r="AA29" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 7 padre</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>eqwe</t>
+        </is>
+      </c>
+      <c r="O30" s="4">
+        <v>35000</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 7 HIJA</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>6462</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>AGLOMERADO 7 HIJA</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>eqwe</t>
+        </is>
+      </c>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AA31" s="0">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 7 HIJA</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>6462</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>AGLOMERADO 7 HIJA 2</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>eqwe</t>
+        </is>
+      </c>
+      <c r="O32" s="5" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="AA32" s="0">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -207,7 +207,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 10:24:28 pm</t>
+          <t>07-12-2022 11:42:36 pm</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>Otro | Bimestral</t>
+          <t>Bimestral | Otro</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>Promedio | Porcentaje</t>
+          <t>Porcentaje | Promedio</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="L27" s="0" t="inlineStr">
         <is>
-          <t>Adulto | Acreditación</t>
+          <t>Acreditación | Adulto</t>
         </is>
       </c>
       <c r="M27" s="0" t="inlineStr">
         <is>
-          <t>A+B | A+B</t>
+          <t>A+B</t>
         </is>
       </c>
       <c r="N27" s="0" t="inlineStr">
         <is>
-          <t>A | A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O27" s="4">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="O30" s="4">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="P30" s="4">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4">
-        <v>36000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -2034,86 +2034,6 @@
       </c>
       <c r="AA31" s="0">
         <v>6000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>gestion</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 7 HIJA</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>6462</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>AGLOMERADO 7 HIJA 2</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>Albergue</t>
-        </is>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>eqwe</t>
-        </is>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
-        <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="AA32" s="0">
-        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -27,11 +27,6 @@
       <i/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -42,11 +37,6 @@
       <name val="Calibri"/>
       <b/>
       <i/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -83,17 +73,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -112,11 +96,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -159,10 +138,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Economía Dinámica y Prosperidad Familiar</t>
         </is>
       </c>
     </row>
@@ -174,7 +152,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
+          <t>Objetivo temporaPropiciar condiciones, oportunidades y apoyos para mantener el ritmo de crecimiento económico dinámico, sostenible, equilibrado y equitativo que incremente la prosperidad de las familias queretanas y estimule la competitividad de los sectores económicos.</t>
         </is>
       </c>
     </row>
@@ -207,10 +185,10 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 12:38:39 pm</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
+          <t>07-19-2022 04:14:21 pm</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Reporte Combinado</t>
         </is>
@@ -493,12 +471,12 @@
     <row r="16" spans="1:27">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>3.4.2.2 Estimular la cultura de financiamiento y capitalización en el sector agroalimentario.</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -508,27 +486,27 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital ACT padre</t>
+          <t>Campañas publicitarias anuales de la SEDEA</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>5097</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Sumatoria de campañas publicitarias ejecutadas de la SEDEA</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -543,73 +521,73 @@
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
+          <t>Número de  de campañas publicitarias ejecutadas de la SEDEA</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>Campaña</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O16" s="4">
-        <v>26348</v>
-      </c>
-      <c r="P16" s="4">
-        <v>26129</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>30467</v>
-      </c>
-      <c r="R16" s="4">
-        <v>25188</v>
-      </c>
-      <c r="S16" s="4">
-        <v>29214</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>137346</v>
+          <t>Brief, Boletín, Publicación en redes sociales y sitio web</t>
+        </is>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>3.4.2.2 Estimular la cultura de financiamiento y capitalización en el sector agroalimentario.</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -617,77 +595,73 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización digital</t>
+          <t>Campañas publicitarias anuales de la SEDEA</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>5097</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Avance de gestión</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA17" s="0">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -699,7 +673,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>3.4.1 Desarrollar las capacidades, infraestructura y transferencia de tecnologías del sector primario. </t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -709,27 +683,27 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Programa de apoyo para la perforación de pozos agrícolas para productores agropecuarios del sector privado y sector social.</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2 pagina web</t>
+          <t>Sumatorio de perforaciones de pozos realizados</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
@@ -744,25 +718,61 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
+          <t>Número de eventos de Agrotón 2022</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Pozo</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="N18" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AA18" s="0">
+          <t>Acta entrega de obra</t>
+        </is>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -774,7 +784,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>3.4.1 Desarrollar las capacidades, infraestructura y transferencia de tecnologías del sector primario. </t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -782,74 +792,85 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
-      </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Programa de apoyo para la perforación de pozos agrícolas para productores agropecuarios del sector privado y sector social.</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Indicador 3 </t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Indicador de avance de gestión</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AA19" s="0">
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
+          <t>3.4.3.1 Promover la reforestación, la conservación y el aprovechamiento forestal sustentable.</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -859,32 +880,32 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Atención de visitantes en el Parque Nacional el Cimatario</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro</t>
+          <t>Sumatoria de visitantes en el Parque Nacional el Cimatario</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
@@ -894,62 +915,73 @@
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
+          <t>Número de de visitantes en el Parque Nacional el Cimatario</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Persona</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>26348</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>26129</t>
-        </is>
-      </c>
-      <c r="Q20" s="5" t="inlineStr">
-        <is>
-          <t>30467</t>
-        </is>
-      </c>
-      <c r="R20" s="5" t="inlineStr">
-        <is>
-          <t>25188</t>
-        </is>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>29214</t>
-        </is>
-      </c>
-      <c r="AA20" s="0">
+          <t>Bitácora Boletaje</t>
+        </is>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>3.4 Fortalecimiento del sector agroalimentario</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -959,32 +991,32 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Eficacia</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Agrotón 2022</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Sumatoria de eventos de Agrotón 2022</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
@@ -994,73 +1026,73 @@
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>Número de  eventos de Agrotón 2022</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Acciones</t>
+          <t>Evento</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
+          <t>Convocatoria Registro participantes</t>
+        </is>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>3.4 Fortalecimiento del sector agroalimentario</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1068,29 +1100,19 @@
           <t>gestion</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>Economia</t>
-        </is>
-      </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>TEST ESZ 1</t>
+          <t>Agrotón 2022</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>6424</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR ESZ 1</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>233</t>
+          <t>Avance de gestiones</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
@@ -1098,135 +1120,1688 @@
           <t>Mensual</t>
         </is>
       </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>Sumatoria</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>Acta de cierre</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="4">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="0" t="inlineStr">
         <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Atender de manera personalizada a alumnos con posible deserción de acuerdo a diagnósticos</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de alumnos en riesgo de deserción con seguimiento con respecto a alumnos en riesgo de deserción</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Semestral</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de alumnos en riesgo de deserción con seguimiento,Total de alumnos identificados en riesgo de deserción </t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>Reporte de seguimiento por alumno</t>
+        </is>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Atender de manera personalizada a alumnos con posible deserción de acuerdo a diagnósticos</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de alumnos en riesgo de deserción con seguimiento con respecto a alumnos en riesgo de deserción</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>Semestral</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>100,Total de alumnos identificados en riesgo de deserción ,Número de alumnos en riesgo de deserción con seguimiento</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>Reporte de seguimiento por alumno</t>
+        </is>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Atender de manera personalizada a alumnos con posible deserción de acuerdo a diagnósticos</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de alumnos en riesgo de deserción con seguimiento con respecto a alumnos en riesgo de deserción</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>Semestral</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>Número de alumnos en riesgo de deserción con seguimiento,100,Total de alumnos identificados en riesgo de deserción </t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>Reporte de seguimiento por alumno</t>
+        </is>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Atender de manera personalizada a alumnos con posible deserción de acuerdo a diagnósticos</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de alumnos en riesgo de deserción con seguimiento con respecto a alumnos en riesgo de deserción</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>Semestral</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>Número de alumnos en riesgo de deserción con seguimiento,Total de alumnos identificados en riesgo de deserción ,100</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>Reporte de seguimiento por alumno</t>
+        </is>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Atender de manera personalizada a alumnos con posible deserción de acuerdo a diagnósticos</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de alumnos en riesgo de deserción con seguimiento con respecto a alumnos en riesgo de deserción</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>Semestral</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>Total de alumnos identificados en riesgo de deserción ,100,Número de alumnos en riesgo de deserción con seguimiento</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>Reporte de seguimiento por alumno</t>
+        </is>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Atender de manera personalizada a alumnos con posible deserción de acuerdo a diagnósticos</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de alumnos en riesgo de deserción con seguimiento con respecto a alumnos en riesgo de deserción</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>Semestral</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>Total de alumnos identificados en riesgo de deserción ,Número de alumnos en riesgo de deserción con seguimiento,100</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>Reporte de seguimiento por alumno</t>
+        </is>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>3.1.2.1 Procurar la vinculación de la oferta de servicios y productos locales con los sectores económicos, promoviendo el cuidado del medio ambiente.</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Difusión en eventos locales, ferias de los productos elaborados por artesanos queretanos </t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Variación porcentual del monto pagado a las y los artesanos por venta de artesanía año actual respecto año anterior</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>Tasa</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t> Monto pagado a los artesanos por venta de artesanía en el año actual ,100,Monto pagado a los artesanos por la venta de artesanías en el año anterior</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>((A/B)A)*100</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>Reportes e Información proporcionada por el área administrativa y el Programa Operativo Anual</t>
+        </is>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>3.1.2.1 Procurar la vinculación de la oferta de servicios y productos locales con los sectores económicos, promoviendo el cuidado del medio ambiente.</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Difusión en eventos locales, ferias de los productos elaborados por artesanos queretanos </t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Variación porcentual del monto pagado a las y los artesanos por venta de artesanía año actual respecto año anterior</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>Tasa</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>100, Monto pagado a los artesanos por venta de artesanía en el año actual ,Monto pagado a los artesanos por la venta de artesanías en el año anterior</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>((A/B)A)*100</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>Reportes e Información proporcionada por el área administrativa y el Programa Operativo Anual</t>
+        </is>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>3.1.2.1 Procurar la vinculación de la oferta de servicios y productos locales con los sectores económicos, promoviendo el cuidado del medio ambiente.</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Difusión en eventos locales, ferias de los productos elaborados por artesanos queretanos </t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Variación porcentual del monto pagado a las y los artesanos por venta de artesanía año actual respecto año anterior</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>Tasa</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>100,Monto pagado a los artesanos por la venta de artesanías en el año anterior, Monto pagado a los artesanos por venta de artesanía en el año actual </t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>((A/B)A)*100</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>Reportes e Información proporcionada por el área administrativa y el Programa Operativo Anual</t>
+        </is>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>3.1.2.1 Procurar la vinculación de la oferta de servicios y productos locales con los sectores económicos, promoviendo el cuidado del medio ambiente.</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Difusión en eventos locales, ferias de los productos elaborados por artesanos queretanos </t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>(Numero de Artesanos beneficiados con la comercialización entre el total de artesanos del Registro Estatal de Artesanos) por cien</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>3.3.2.1 Fomentar programas de capacitación, certificación y asesoría para las personas emprendedoras y para el autoempleo.</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>gestion</t>
         </is>
       </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>Actividad padre 2 SF</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>6442</t>
-        </is>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="4">
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Capacitación implementadas para la elaboración de productos innovadores</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de artesanos capacitados por la Casa Queretana de las Artesanías</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>Cursos de Capacitación Otorgados,Número de artesanos capacitados</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>Reportes e Información proporcionada por el área administrativa y el Programa Operativo Anual</t>
+        </is>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>3.3.2.1 Fomentar programas de capacitación, certificación y asesoría para las personas emprendedoras y para el autoempleo.</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Capacitación implementadas para la elaboración de productos innovadores</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de artesanos capacitados por la Casa Queretana de las Artesanías</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>Número de artesanos capacitados,Cursos de Capacitación Otorgados</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)</t>
+        </is>
+      </c>
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t>Reportes e Información proporcionada por el área administrativa y el Programa Operativo Anual</t>
+        </is>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>3.1 Fortaleza Económica e Integral</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Generar un inventario de empresas del sector industrial, comercial y de servicios  para su atención</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>5684</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t> Sumatoria de empresas atendidas del sector industrial, comercial y de servicios que se encuentran dentro del inventario </t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t> Número de empresas atendidas del sector industrial, comercial y de servicios que se encuentran dentro del inventario </t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>Total de base de datos</t>
+        </is>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>3.1.3 Impulsar la integración de cadenas productivas y la oferta exportable de productos y servicios.</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Capacitación en materia de comercio exterior y actividades empresariales para la vinculación.</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>5685</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de empresas vinculadas en la Capacitación en materia de comercio exterior y actividades empresariales </t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>Número de empresas vinculadas en la Capacitación en materia de comercio exterior y actividades empresariales </t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
+        <is>
+          <t>Total de base de datos</t>
+        </is>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>6421</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Ejemplo</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>Acciones</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
         <v>0</v>
       </c>
     </row>

--- a/public/reportes/reporteCombinado.xlsx
+++ b/public/reportes/reporteCombinado.xlsx
@@ -215,7 +215,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>11-07-2022 03:40:22 pm</t>
+          <t>11-11-2022 03:06:38 pm</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>Número de acciones realizadas del Programa para mitigar las emisiones de gases de efecto invernadero y la huella de carbono del sector energético,Totales de acciones programadas del Programa para mitigar las emisiones de gases de efecto invernadero y la huella de carbono del sector energético,100</t>
+          <t>Totales de acciones programadas del Programa para mitigar las emisiones de gases de efecto invernadero y la huella de carbono del sector energético,100,Número de acciones realizadas del Programa para mitigar las emisiones de gases de efecto invernadero y la huella de carbono del sector energético</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
@@ -569,32 +569,44 @@
           <t>Número de proyectos convenidos o contratados</t>
         </is>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>20</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
       <c r="AA16" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -620,84 +632,758 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
+          <t>3.2.2.-  Implementar un programa de educación, capacitacion y concientización en materia de eficiencia energética.</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de avance de acciones realizadas para el programa de educación, capacitacion y concientización en materia de eficiencia energética con respecto al total de acciones a realizar.</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de acciones realizadas del programa de educación, apacitacion y concientización en materia de eficiencia energética.,Total de acciones a realizar</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>Firma de  convenio con UNECE para lanzamiento del programa</t>
+        </is>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>20</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>4.4.4.2 Promover el acceso y el uso eficiente de la energía, con énfasis en las energías renovables.</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
           <t>3.2.3.-  Desarrollar programas de ahorro de energía en el sector público.</t>
         </is>
       </c>
-      <c r="F17" s="0" t="inlineStr">
+      <c r="F18" s="0" t="inlineStr">
         <is>
           <t>4778</t>
         </is>
       </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de programas realizados para el ahorro de energía en el sector público con respecto al total de programas a realizar</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
         </is>
       </c>
-      <c r="J17" s="0" t="inlineStr">
+      <c r="J18" s="0" t="inlineStr">
         <is>
           <t>Porcentaje</t>
         </is>
       </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>Número de programas realizados para el ahorro de energía en el sector público,100,Total de programas a realizar | Total de programas a realizar,Número de programas realizados para el ahorro de energía en el sector público,100</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de programas realizados para el ahorro de energía en el sector público,Total de programas a realizar</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Avance</t>
         </is>
       </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>(B/D)*E</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>Publicación en redes sociales</t>
+        </is>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>20</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>4.4.4.2 Promover el acceso y el uso eficiente de la energía, con énfasis en las energías renovables.</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>4.1.2.-  Promover e implementar proyectos de generación eléctrica a partir del aprovechamiento de energías renovables</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de avance de proyectos implementados de generación eléctrica con respecto al total proyectos a implementar.</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>Número de proyectos implementados de generación eléctrica,100,Total proyectos a implementar</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
         <is>
           <t>(A/B)*C</t>
         </is>
       </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>Publicación en redes sociales</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>33.3</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3">
-        <v>35.3</v>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>4.4.4.2 Promover el acceso y el uso eficiente de la energía, con énfasis en las energías renovables.</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Crear un Fideicomiso para el desarrollo energético sustentable que permita financiar la  implementación de programas y proyectos en el  Estado de Querétaro.</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>5597</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de etapas concluidas en la creación del Fideicomiso para el Desarrollo Energético Sustentable respecto del total de etapas programadas</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>Total de etapas programadas,Número de etapas concluidas en la creación del Fideicomiso para el Desarrollo Energético Sustentable,100</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>20</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>4.4.4.2 Promover el acceso y el uso eficiente de la energía, con énfasis en las energías renovables.</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Promover proyectos de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>5598</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de avance de acciones para la generación distribuída y de abasto aislado de electricidad en edificios públicos con respecto al total de acciones .</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>Acciones RealizadasNúmero de acciones realizadas para la generación distribuída y de abasto aislado de electricidad en edificios públicos,Total de acciones programadas para la generación distribuida y abasto en edificios públicos,100</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>Convenio con empresa para promover celdas solares</t>
+        </is>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>4.4.3.2 Ampliar el sistema de distribución de energía eléctrica.</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Eficiencia</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>2.1.3.- Integrar un portafolio de proyectos de energía competitivo que atraiga la inversión a Querétaro.</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>5650</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de avance de acciones realizadas para integrar el portafolio de proyectos de energía con respecto a las acciones a realizar.</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>Número acciones realizadas para integrar el portafolio de proyectos de energía,100,Totales del acciones a realizar</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>Proejecución de ejecución de polo de desarrollo aeropuerto </t>
+        </is>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>30</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>4.4.3.1 Desarrollar redes de autoabasto eléctrico.</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>gestion</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Eficacia</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>2.4.2.-  Construir e instalar infraestructura energetica</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>5654</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de extensiones de líneas de alta tensión instaladas</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>C, Número de extensiones de líneas de alta tensión instaladas,B</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Línea</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>(A/B)*C</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>Proejecución de ejecución de polo de desarrollo aeropuerto </t>
+        </is>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>25</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
